--- a/Assets/Rififi #40 bracket.xlsx
+++ b/Assets/Rififi #40 bracket.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugor\Documents\GitHub\MarioKart\MarioKartTopGenerator\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugor\GitHub\MarioKartTopGenerator\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640E1076-1BB8-4620-B63A-B5CA576C9367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E337E3D-EA77-4DF1-AF10-C1E3BAF0F925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5250" windowWidth="29040" windowHeight="16440" xr2:uid="{C11D561D-B025-4F78-BC9A-B4B7E49609CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C11D561D-B025-4F78-BC9A-B4B7E49609CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Solo_16" sheetId="1" r:id="rId1"/>
@@ -1318,39 +1318,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1367,6 +1334,39 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="cf1" xfId="1" xr:uid="{F7844BDC-90A1-4C48-B3F1-C86E4FD892E4}"/>
@@ -1849,7 +1849,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2168,102 +2168,102 @@
   <dimension ref="A1:BE160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="R63" sqref="R63"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="9" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="91" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" style="91" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="91" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" style="9" customWidth="1"/>
-    <col min="14" max="14" width="27.85546875" style="9" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="39.85546875" style="9" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" style="9" customWidth="1"/>
-    <col min="17" max="18" width="30.7109375" style="9" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="9" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="9" customWidth="1"/>
-    <col min="21" max="22" width="4.7109375" style="9" customWidth="1"/>
-    <col min="23" max="24" width="30.7109375" style="9" customWidth="1"/>
-    <col min="25" max="25" width="4.7109375" style="9" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" style="9" customWidth="1"/>
-    <col min="27" max="28" width="4.7109375" style="9" customWidth="1"/>
-    <col min="29" max="30" width="30.7109375" style="9" customWidth="1"/>
-    <col min="31" max="31" width="4.7109375" style="9" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" style="9" customWidth="1"/>
-    <col min="33" max="34" width="4.7109375" style="9" customWidth="1"/>
-    <col min="35" max="36" width="30.7109375" style="9" customWidth="1"/>
-    <col min="37" max="37" width="4.7109375" style="9" customWidth="1"/>
-    <col min="38" max="38" width="10.7109375" style="9" customWidth="1"/>
-    <col min="39" max="39" width="13.28515625" style="9" customWidth="1"/>
-    <col min="40" max="41" width="4.7109375" style="9" customWidth="1"/>
-    <col min="42" max="43" width="30.7109375" style="9" customWidth="1"/>
-    <col min="44" max="44" width="10.7109375" style="9" customWidth="1"/>
-    <col min="45" max="45" width="4.7109375" style="9" customWidth="1"/>
-    <col min="46" max="46" width="13.28515625" style="9" customWidth="1"/>
-    <col min="47" max="56" width="13.28515625" style="9" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="5.7109375" style="9" customWidth="1"/>
-    <col min="58" max="58" width="11.42578125" style="9" hidden="1" customWidth="1"/>
-    <col min="59" max="16384" width="11.42578125" style="9" hidden="1"/>
+    <col min="1" max="1" width="32.44140625" style="9" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="91" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" style="91" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="91" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="27.88671875" style="9" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="39.88671875" style="9" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" style="9" customWidth="1"/>
+    <col min="17" max="18" width="30.6640625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" style="9" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="9" customWidth="1"/>
+    <col min="21" max="22" width="4.6640625" style="9" customWidth="1"/>
+    <col min="23" max="24" width="30.6640625" style="9" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" style="9" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" style="9" customWidth="1"/>
+    <col min="27" max="28" width="4.6640625" style="9" customWidth="1"/>
+    <col min="29" max="30" width="30.6640625" style="9" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" style="9" customWidth="1"/>
+    <col min="32" max="32" width="10.6640625" style="9" customWidth="1"/>
+    <col min="33" max="34" width="4.6640625" style="9" customWidth="1"/>
+    <col min="35" max="36" width="30.6640625" style="9" customWidth="1"/>
+    <col min="37" max="37" width="4.6640625" style="9" customWidth="1"/>
+    <col min="38" max="38" width="10.6640625" style="9" customWidth="1"/>
+    <col min="39" max="39" width="13.33203125" style="9" customWidth="1"/>
+    <col min="40" max="41" width="4.6640625" style="9" customWidth="1"/>
+    <col min="42" max="43" width="30.6640625" style="9" customWidth="1"/>
+    <col min="44" max="44" width="10.6640625" style="9" customWidth="1"/>
+    <col min="45" max="45" width="4.6640625" style="9" customWidth="1"/>
+    <col min="46" max="46" width="13.33203125" style="9" customWidth="1"/>
+    <col min="47" max="56" width="13.33203125" style="9" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="5.6640625" style="9" customWidth="1"/>
+    <col min="58" max="58" width="11.44140625" style="9" hidden="1" customWidth="1"/>
+    <col min="59" max="16384" width="11.44140625" style="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="118"/>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="118"/>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="118"/>
-      <c r="AL1" s="118"/>
-      <c r="AM1" s="118"/>
-      <c r="AN1" s="118"/>
-      <c r="AO1" s="118"/>
-      <c r="AP1" s="118"/>
-      <c r="AQ1" s="118"/>
-      <c r="AR1" s="118"/>
-      <c r="AS1" s="118"/>
-      <c r="AT1" s="118"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
       <c r="AU1" s="2"/>
       <c r="AV1" s="2"/>
       <c r="AW1" s="2"/>
@@ -2274,25 +2274,25 @@
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
       <c r="BD1" s="2"/>
-      <c r="BE1" s="119"/>
-    </row>
-    <row r="2" spans="1:57" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE1" s="104"/>
+    </row>
+    <row r="2" spans="1:57" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="120" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="121"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="106"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -2318,7 +2318,7 @@
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
-      <c r="AL2" s="121"/>
+      <c r="AL2" s="106"/>
       <c r="AM2" s="6"/>
       <c r="AN2" s="6"/>
       <c r="AO2" s="6"/>
@@ -2337,23 +2337,23 @@
       <c r="BB2" s="8"/>
       <c r="BC2" s="8"/>
       <c r="BD2" s="8"/>
-      <c r="BE2" s="119"/>
-    </row>
-    <row r="3" spans="1:57" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE2" s="104"/>
+    </row>
+    <row r="3" spans="1:57" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="121"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="106"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -2379,7 +2379,7 @@
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
-      <c r="AL3" s="121"/>
+      <c r="AL3" s="106"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="8"/>
       <c r="AO3" s="8"/>
@@ -2398,23 +2398,23 @@
       <c r="BB3" s="8"/>
       <c r="BC3" s="8"/>
       <c r="BD3" s="8"/>
-      <c r="BE3" s="119"/>
-    </row>
-    <row r="4" spans="1:57" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE3" s="104"/>
+    </row>
+    <row r="4" spans="1:57" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="121"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="106"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -2440,7 +2440,7 @@
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
-      <c r="AL4" s="121"/>
+      <c r="AL4" s="106"/>
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
       <c r="AO4" s="8"/>
@@ -2459,61 +2459,61 @@
       <c r="BB4" s="8"/>
       <c r="BC4" s="8"/>
       <c r="BD4" s="8"/>
-      <c r="BE4" s="119"/>
-    </row>
-    <row r="5" spans="1:57" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE4" s="104"/>
+    </row>
+    <row r="5" spans="1:57" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="122" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="122"/>
-      <c r="AG5" s="122"/>
-      <c r="AH5" s="122"/>
-      <c r="AI5" s="122"/>
-      <c r="AJ5" s="122"/>
-      <c r="AK5" s="122"/>
-      <c r="AL5" s="121"/>
-      <c r="AM5" s="123" t="s">
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AN5" s="123"/>
-      <c r="AO5" s="123"/>
-      <c r="AP5" s="123"/>
-      <c r="AQ5" s="123"/>
-      <c r="AR5" s="123"/>
-      <c r="AS5" s="123"/>
-      <c r="AT5" s="123"/>
+      <c r="AN5" s="108"/>
+      <c r="AO5" s="108"/>
+      <c r="AP5" s="108"/>
+      <c r="AQ5" s="108"/>
+      <c r="AR5" s="108"/>
+      <c r="AS5" s="108"/>
+      <c r="AT5" s="108"/>
       <c r="AU5" s="8"/>
       <c r="AV5" s="8"/>
       <c r="AW5" s="8"/>
@@ -2524,57 +2524,57 @@
       <c r="BB5" s="8"/>
       <c r="BC5" s="8"/>
       <c r="BD5" s="8"/>
-      <c r="BE5" s="119"/>
-    </row>
-    <row r="6" spans="1:57" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE5" s="104"/>
+    </row>
+    <row r="6" spans="1:57" ht="24.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="122"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="122"/>
-      <c r="AB6" s="122"/>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122"/>
-      <c r="AH6" s="122"/>
-      <c r="AI6" s="122"/>
-      <c r="AJ6" s="122"/>
-      <c r="AK6" s="122"/>
-      <c r="AL6" s="121"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123"/>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="107"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
+      <c r="AF6" s="107"/>
+      <c r="AG6" s="107"/>
+      <c r="AH6" s="107"/>
+      <c r="AI6" s="107"/>
+      <c r="AJ6" s="107"/>
+      <c r="AK6" s="107"/>
+      <c r="AL6" s="106"/>
+      <c r="AM6" s="108"/>
+      <c r="AN6" s="108"/>
+      <c r="AO6" s="108"/>
+      <c r="AP6" s="108"/>
+      <c r="AQ6" s="108"/>
+      <c r="AR6" s="108"/>
+      <c r="AS6" s="108"/>
+      <c r="AT6" s="108"/>
       <c r="AU6" s="8"/>
       <c r="AV6" s="8"/>
       <c r="AW6" s="8"/>
@@ -2585,61 +2585,61 @@
       <c r="BB6" s="8"/>
       <c r="BC6" s="8"/>
       <c r="BD6" s="8"/>
-      <c r="BE6" s="119"/>
-    </row>
-    <row r="7" spans="1:57" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="BE6" s="104"/>
+    </row>
+    <row r="7" spans="1:57" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="117"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="124"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="124" t="s">
+      <c r="H7" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="122"/>
-      <c r="AJ7" s="122"/>
-      <c r="AK7" s="122"/>
-      <c r="AL7" s="121"/>
-      <c r="AM7" s="123"/>
-      <c r="AN7" s="123"/>
-      <c r="AO7" s="123"/>
-      <c r="AP7" s="123"/>
-      <c r="AQ7" s="123"/>
-      <c r="AR7" s="123"/>
-      <c r="AS7" s="123"/>
-      <c r="AT7" s="123"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="106"/>
+      <c r="AM7" s="108"/>
+      <c r="AN7" s="108"/>
+      <c r="AO7" s="108"/>
+      <c r="AP7" s="108"/>
+      <c r="AQ7" s="108"/>
+      <c r="AR7" s="108"/>
+      <c r="AS7" s="108"/>
+      <c r="AT7" s="108"/>
       <c r="AU7" s="8"/>
       <c r="AV7" s="8"/>
       <c r="AW7" s="8"/>
@@ -2650,23 +2650,23 @@
       <c r="BB7" s="8"/>
       <c r="BC7" s="8"/>
       <c r="BD7" s="8"/>
-      <c r="BE7" s="119"/>
-    </row>
-    <row r="8" spans="1:57" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE7" s="104"/>
+    </row>
+    <row r="8" spans="1:57" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="117"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="13"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="121"/>
+      <c r="L8" s="106"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -2691,7 +2691,7 @@
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
-      <c r="AL8" s="121"/>
+      <c r="AL8" s="106"/>
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
       <c r="AO8" s="8"/>
@@ -2710,27 +2710,27 @@
       <c r="BB8" s="8"/>
       <c r="BC8" s="8"/>
       <c r="BD8" s="8"/>
-      <c r="BE8" s="119"/>
-    </row>
-    <row r="9" spans="1:57" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BE8" s="104"/>
+    </row>
+    <row r="9" spans="1:57" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="117"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="116"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="116" t="s">
+      <c r="H9" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="121"/>
+      <c r="L9" s="106"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -2756,7 +2756,7 @@
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
-      <c r="AL9" s="121"/>
+      <c r="AL9" s="106"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
       <c r="AO9" s="8"/>
@@ -2775,13 +2775,13 @@
       <c r="BB9" s="8"/>
       <c r="BC9" s="8"/>
       <c r="BD9" s="8"/>
-      <c r="BE9" s="119"/>
-    </row>
-    <row r="10" spans="1:57" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE9" s="104"/>
+    </row>
+    <row r="10" spans="1:57" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="117"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="13"/>
       <c r="D10" s="8"/>
       <c r="E10" s="15"/>
@@ -2791,7 +2791,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="121"/>
+      <c r="L10" s="106"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -2817,7 +2817,7 @@
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
-      <c r="AL10" s="121"/>
+      <c r="AL10" s="106"/>
       <c r="AM10" s="8"/>
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
@@ -2836,13 +2836,13 @@
       <c r="BB10" s="8"/>
       <c r="BC10" s="8"/>
       <c r="BD10" s="8"/>
-      <c r="BE10" s="119"/>
-    </row>
-    <row r="11" spans="1:57" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE10" s="104"/>
+    </row>
+    <row r="11" spans="1:57" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="117"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="13"/>
       <c r="D11" s="8"/>
       <c r="E11" s="15"/>
@@ -2852,62 +2852,62 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="111" t="s">
+      <c r="L11" s="106"/>
+      <c r="M11" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
       <c r="T11" s="8"/>
-      <c r="U11" s="111" t="s">
+      <c r="U11" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="111"/>
-      <c r="W11" s="111"/>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="111"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
       <c r="Z11" s="8"/>
-      <c r="AA11" s="111" t="s">
+      <c r="AA11" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="AB11" s="111"/>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="111"/>
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="112"/>
+      <c r="AD11" s="112"/>
+      <c r="AE11" s="112"/>
       <c r="AF11" s="8"/>
-      <c r="AG11" s="111" t="s">
+      <c r="AG11" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="AH11" s="111"/>
-      <c r="AI11" s="111"/>
-      <c r="AJ11" s="111"/>
-      <c r="AK11" s="111"/>
-      <c r="AL11" s="121"/>
+      <c r="AH11" s="112"/>
+      <c r="AI11" s="112"/>
+      <c r="AJ11" s="112"/>
+      <c r="AK11" s="112"/>
+      <c r="AL11" s="106"/>
       <c r="AM11" s="8"/>
-      <c r="AN11" s="111" t="s">
+      <c r="AN11" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="AO11" s="111"/>
-      <c r="AP11" s="111"/>
-      <c r="AQ11" s="111"/>
-      <c r="AR11" s="111"/>
-      <c r="AS11" s="111"/>
+      <c r="AO11" s="112"/>
+      <c r="AP11" s="112"/>
+      <c r="AQ11" s="112"/>
+      <c r="AR11" s="112"/>
+      <c r="AS11" s="112"/>
       <c r="AT11" s="12"/>
       <c r="BA11" s="8"/>
       <c r="BB11" s="8"/>
       <c r="BC11" s="8"/>
       <c r="BD11" s="8"/>
-      <c r="BE11" s="119"/>
-    </row>
-    <row r="12" spans="1:57" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE11" s="104"/>
+    </row>
+    <row r="12" spans="1:57" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="117"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="13"/>
       <c r="D12" s="8"/>
       <c r="E12" s="15"/>
@@ -2917,166 +2917,166 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
-      <c r="S12" s="111"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="112"/>
       <c r="T12" s="8"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="111"/>
-      <c r="W12" s="111"/>
-      <c r="X12" s="111"/>
-      <c r="Y12" s="111"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="112"/>
+      <c r="W12" s="112"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="112"/>
       <c r="Z12" s="8"/>
-      <c r="AA12" s="111"/>
-      <c r="AB12" s="111"/>
-      <c r="AC12" s="111"/>
-      <c r="AD12" s="111"/>
-      <c r="AE12" s="111"/>
+      <c r="AA12" s="112"/>
+      <c r="AB12" s="112"/>
+      <c r="AC12" s="112"/>
+      <c r="AD12" s="112"/>
+      <c r="AE12" s="112"/>
       <c r="AF12" s="8"/>
-      <c r="AG12" s="111"/>
-      <c r="AH12" s="111"/>
-      <c r="AI12" s="111"/>
-      <c r="AJ12" s="111"/>
-      <c r="AK12" s="111"/>
-      <c r="AL12" s="121"/>
+      <c r="AG12" s="112"/>
+      <c r="AH12" s="112"/>
+      <c r="AI12" s="112"/>
+      <c r="AJ12" s="112"/>
+      <c r="AK12" s="112"/>
+      <c r="AL12" s="106"/>
       <c r="AM12" s="8"/>
-      <c r="AN12" s="111"/>
-      <c r="AO12" s="111"/>
-      <c r="AP12" s="111"/>
-      <c r="AQ12" s="111"/>
-      <c r="AR12" s="111"/>
-      <c r="AS12" s="111"/>
+      <c r="AN12" s="112"/>
+      <c r="AO12" s="112"/>
+      <c r="AP12" s="112"/>
+      <c r="AQ12" s="112"/>
+      <c r="AR12" s="112"/>
+      <c r="AS12" s="112"/>
       <c r="AT12" s="12"/>
       <c r="BA12" s="8"/>
       <c r="BB12" s="8"/>
       <c r="BC12" s="8"/>
       <c r="BD12" s="8"/>
-      <c r="BE12" s="119"/>
-    </row>
-    <row r="13" spans="1:57" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE12" s="104"/>
+    </row>
+    <row r="13" spans="1:57" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="117"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="114"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="114" t="s">
+      <c r="H13" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="111"/>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="111"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="112"/>
+      <c r="W13" s="112"/>
+      <c r="X13" s="112"/>
+      <c r="Y13" s="112"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="111"/>
-      <c r="AB13" s="111"/>
-      <c r="AC13" s="111"/>
-      <c r="AD13" s="111"/>
-      <c r="AE13" s="111"/>
+      <c r="AA13" s="112"/>
+      <c r="AB13" s="112"/>
+      <c r="AC13" s="112"/>
+      <c r="AD13" s="112"/>
+      <c r="AE13" s="112"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="111"/>
-      <c r="AH13" s="111"/>
-      <c r="AI13" s="111"/>
-      <c r="AJ13" s="111"/>
-      <c r="AK13" s="111"/>
-      <c r="AL13" s="121"/>
+      <c r="AG13" s="112"/>
+      <c r="AH13" s="112"/>
+      <c r="AI13" s="112"/>
+      <c r="AJ13" s="112"/>
+      <c r="AK13" s="112"/>
+      <c r="AL13" s="106"/>
       <c r="AM13" s="8"/>
-      <c r="AN13" s="111"/>
-      <c r="AO13" s="111"/>
-      <c r="AP13" s="111"/>
-      <c r="AQ13" s="111"/>
-      <c r="AR13" s="111"/>
-      <c r="AS13" s="111"/>
+      <c r="AN13" s="112"/>
+      <c r="AO13" s="112"/>
+      <c r="AP13" s="112"/>
+      <c r="AQ13" s="112"/>
+      <c r="AR13" s="112"/>
+      <c r="AS13" s="112"/>
       <c r="AT13" s="12"/>
       <c r="BA13" s="8"/>
       <c r="BB13" s="8"/>
       <c r="BC13" s="8"/>
       <c r="BD13" s="8"/>
-      <c r="BE13" s="119"/>
-    </row>
-    <row r="14" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE13" s="104"/>
+    </row>
+    <row r="14" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="117"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="105"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="105"/>
-      <c r="S14" s="105"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
       <c r="T14" s="8"/>
-      <c r="U14" s="105"/>
-      <c r="V14" s="105"/>
-      <c r="W14" s="105"/>
-      <c r="X14" s="105"/>
-      <c r="Y14" s="105"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="114"/>
       <c r="Z14" s="8"/>
-      <c r="AA14" s="105"/>
-      <c r="AB14" s="105"/>
-      <c r="AC14" s="105"/>
-      <c r="AD14" s="105"/>
-      <c r="AE14" s="105"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="114"/>
+      <c r="AC14" s="114"/>
+      <c r="AD14" s="114"/>
+      <c r="AE14" s="114"/>
       <c r="AF14" s="8"/>
-      <c r="AG14" s="105"/>
-      <c r="AH14" s="105"/>
-      <c r="AI14" s="105"/>
-      <c r="AJ14" s="105"/>
-      <c r="AK14" s="105"/>
-      <c r="AL14" s="121"/>
+      <c r="AG14" s="114"/>
+      <c r="AH14" s="114"/>
+      <c r="AI14" s="114"/>
+      <c r="AJ14" s="114"/>
+      <c r="AK14" s="114"/>
+      <c r="AL14" s="106"/>
       <c r="AM14" s="8"/>
-      <c r="AN14" s="105"/>
-      <c r="AO14" s="105"/>
-      <c r="AP14" s="105"/>
-      <c r="AQ14" s="105"/>
-      <c r="AR14" s="105"/>
-      <c r="AS14" s="105"/>
+      <c r="AN14" s="114"/>
+      <c r="AO14" s="114"/>
+      <c r="AP14" s="114"/>
+      <c r="AQ14" s="114"/>
+      <c r="AR14" s="114"/>
+      <c r="AS14" s="114"/>
       <c r="AT14" s="12"/>
       <c r="BA14" s="8"/>
       <c r="BB14" s="8"/>
       <c r="BC14" s="8"/>
       <c r="BD14" s="8"/>
-      <c r="BE14" s="119"/>
-    </row>
-    <row r="15" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BE14" s="104"/>
+    </row>
+    <row r="15" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="117"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="13"/>
       <c r="D15" s="18" t="s">
         <v>30</v>
@@ -3087,7 +3087,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="20" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I15" s="21" t="str">
         <f>IF(ISBLANK(AQ17),"TBD",AQ17)</f>
@@ -3097,8 +3097,8 @@
         <v>31</v>
       </c>
       <c r="K15" s="8"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="113">
+      <c r="L15" s="106"/>
+      <c r="M15" s="115">
         <f>IF(E31&gt;=1,ROW()-$O$16,"")</f>
         <v>-1</v>
       </c>
@@ -3107,65 +3107,65 @@
       <c r="P15" s="24">
         <v>4</v>
       </c>
-      <c r="Q15" s="108" t="s">
+      <c r="Q15" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="R15" s="108"/>
-      <c r="S15" s="109"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="117"/>
       <c r="T15" s="8"/>
-      <c r="U15" s="109"/>
+      <c r="U15" s="117"/>
       <c r="V15" s="25">
         <v>4</v>
       </c>
-      <c r="W15" s="108" t="s">
+      <c r="W15" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="X15" s="108"/>
-      <c r="Y15" s="109"/>
+      <c r="X15" s="116"/>
+      <c r="Y15" s="117"/>
       <c r="Z15" s="8"/>
-      <c r="AA15" s="109"/>
+      <c r="AA15" s="117"/>
       <c r="AB15" s="26">
         <v>4</v>
       </c>
-      <c r="AC15" s="108" t="s">
+      <c r="AC15" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="AD15" s="108"/>
-      <c r="AE15" s="109"/>
+      <c r="AD15" s="116"/>
+      <c r="AE15" s="117"/>
       <c r="AF15" s="8"/>
-      <c r="AG15" s="109"/>
+      <c r="AG15" s="117"/>
       <c r="AH15" s="26">
         <v>6</v>
       </c>
-      <c r="AI15" s="108" t="s">
+      <c r="AI15" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="AJ15" s="108"/>
-      <c r="AK15" s="109"/>
-      <c r="AL15" s="121"/>
+      <c r="AJ15" s="116"/>
+      <c r="AK15" s="117"/>
+      <c r="AL15" s="106"/>
       <c r="AM15" s="8"/>
-      <c r="AN15" s="109"/>
+      <c r="AN15" s="117"/>
       <c r="AO15" s="26">
         <v>8</v>
       </c>
-      <c r="AP15" s="108" t="s">
+      <c r="AP15" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="AQ15" s="108"/>
-      <c r="AR15" s="108"/>
-      <c r="AS15" s="109"/>
+      <c r="AQ15" s="116"/>
+      <c r="AR15" s="116"/>
+      <c r="AS15" s="117"/>
       <c r="AT15" s="12"/>
       <c r="BA15" s="8"/>
       <c r="BB15" s="8"/>
       <c r="BC15" s="8"/>
       <c r="BD15" s="8"/>
-      <c r="BE15" s="119"/>
-    </row>
-    <row r="16" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE15" s="104"/>
+    </row>
+    <row r="16" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="117"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="13"/>
       <c r="D16" s="18" t="s">
         <v>34</v>
@@ -3176,7 +3176,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="27" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I16" s="28" t="str">
         <f>IF(ISBLANK(AQ18),"TBD",AQ18)</f>
@@ -3186,8 +3186,8 @@
         <v>35</v>
       </c>
       <c r="K16" s="8"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="113"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="115"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23">
         <f>ROW()</f>
@@ -3202,9 +3202,9 @@
       <c r="R16" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="S16" s="109"/>
+      <c r="S16" s="117"/>
       <c r="T16" s="8"/>
-      <c r="U16" s="109"/>
+      <c r="U16" s="117"/>
       <c r="V16" s="31" t="s">
         <v>36</v>
       </c>
@@ -3214,9 +3214,9 @@
       <c r="X16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="Y16" s="109"/>
+      <c r="Y16" s="117"/>
       <c r="Z16" s="8"/>
-      <c r="AA16" s="109"/>
+      <c r="AA16" s="117"/>
       <c r="AB16" s="30" t="s">
         <v>36</v>
       </c>
@@ -3226,9 +3226,9 @@
       <c r="AD16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AE16" s="109"/>
+      <c r="AE16" s="117"/>
       <c r="AF16" s="8"/>
-      <c r="AG16" s="109"/>
+      <c r="AG16" s="117"/>
       <c r="AH16" s="30" t="s">
         <v>36</v>
       </c>
@@ -3238,10 +3238,10 @@
       <c r="AJ16" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AK16" s="109"/>
-      <c r="AL16" s="121"/>
+      <c r="AK16" s="117"/>
+      <c r="AL16" s="106"/>
       <c r="AM16" s="8"/>
-      <c r="AN16" s="109"/>
+      <c r="AN16" s="117"/>
       <c r="AO16" s="30" t="s">
         <v>36</v>
       </c>
@@ -3254,19 +3254,19 @@
       <c r="AR16" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AS16" s="109"/>
+      <c r="AS16" s="117"/>
       <c r="AT16" s="12"/>
       <c r="BA16" s="8"/>
       <c r="BB16" s="8"/>
       <c r="BC16" s="8"/>
       <c r="BD16" s="8"/>
-      <c r="BE16" s="119"/>
-    </row>
-    <row r="17" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE16" s="104"/>
+    </row>
+    <row r="17" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="117"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="13"/>
       <c r="D17" s="33" t="s">
         <v>41</v>
@@ -3287,8 +3287,8 @@
         <v>42</v>
       </c>
       <c r="K17" s="8"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="113"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="115"/>
       <c r="N17" s="23" t="str">
         <f t="shared" ref="N17:N40" si="0">IF(E15=2,D15 &amp; "  [DQ]",D15)</f>
         <v>GoGu</v>
@@ -3297,7 +3297,7 @@
         <f t="shared" ref="O17:O40" si="1">IF(E15&gt;=1,ROW()-$O$16,"")</f>
         <v>1</v>
       </c>
-      <c r="P17" s="104" t="s">
+      <c r="P17" s="118" t="s">
         <v>43</v>
       </c>
       <c r="Q17" s="37" t="str">
@@ -3307,10 +3307,10 @@
       <c r="R17" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="S17" s="109"/>
+      <c r="S17" s="117"/>
       <c r="T17" s="8"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="104" t="s">
+      <c r="U17" s="117"/>
+      <c r="V17" s="118" t="s">
         <v>44</v>
       </c>
       <c r="W17" s="37" t="str">
@@ -3320,10 +3320,10 @@
       <c r="X17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="Y17" s="109"/>
+      <c r="Y17" s="117"/>
       <c r="Z17" s="8"/>
-      <c r="AA17" s="109"/>
-      <c r="AB17" s="104" t="s">
+      <c r="AA17" s="117"/>
+      <c r="AB17" s="118" t="s">
         <v>45</v>
       </c>
       <c r="AC17" s="40" t="str">
@@ -3333,10 +3333,10 @@
       <c r="AD17" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="AE17" s="109"/>
+      <c r="AE17" s="117"/>
       <c r="AF17" s="8"/>
-      <c r="AG17" s="109"/>
-      <c r="AH17" s="104" t="s">
+      <c r="AG17" s="117"/>
+      <c r="AH17" s="118" t="s">
         <v>46</v>
       </c>
       <c r="AI17" s="37" t="str">
@@ -3346,11 +3346,11 @@
       <c r="AJ17" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AK17" s="109"/>
-      <c r="AL17" s="121"/>
+      <c r="AK17" s="117"/>
+      <c r="AL17" s="106"/>
       <c r="AM17" s="8"/>
-      <c r="AN17" s="109"/>
-      <c r="AO17" s="112" t="s">
+      <c r="AN17" s="117"/>
+      <c r="AO17" s="119" t="s">
         <v>47</v>
       </c>
       <c r="AP17" s="40" t="str">
@@ -3363,19 +3363,19 @@
       <c r="AR17" s="42">
         <v>101</v>
       </c>
-      <c r="AS17" s="109"/>
+      <c r="AS17" s="117"/>
       <c r="AT17" s="12"/>
       <c r="BA17" s="8"/>
       <c r="BB17" s="8"/>
       <c r="BC17" s="8"/>
       <c r="BD17" s="8"/>
-      <c r="BE17" s="119"/>
-    </row>
-    <row r="18" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE17" s="104"/>
+    </row>
+    <row r="18" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="117"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="43"/>
       <c r="D18" s="33" t="s">
         <v>49</v>
@@ -3396,8 +3396,8 @@
         <v>50</v>
       </c>
       <c r="K18" s="8"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="113"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="115"/>
       <c r="N18" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Staaany</v>
@@ -3406,7 +3406,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P18" s="104"/>
+      <c r="P18" s="118"/>
       <c r="Q18" s="47" t="str">
         <f t="array" ref="Q18">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B7))),"-")</f>
         <v>Batefimbi</v>
@@ -3414,10 +3414,10 @@
       <c r="R18" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="S18" s="109"/>
+      <c r="S18" s="117"/>
       <c r="T18" s="8"/>
-      <c r="U18" s="109"/>
-      <c r="V18" s="104"/>
+      <c r="U18" s="117"/>
+      <c r="V18" s="118"/>
       <c r="W18" s="47" t="str">
         <f>IF(ISBLANK($R$29),"D1",$R$29)</f>
         <v>SewLink</v>
@@ -3425,10 +3425,10 @@
       <c r="X18" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="Y18" s="109"/>
+      <c r="Y18" s="117"/>
       <c r="Z18" s="8"/>
-      <c r="AA18" s="109"/>
-      <c r="AB18" s="104"/>
+      <c r="AA18" s="117"/>
+      <c r="AB18" s="118"/>
       <c r="AC18" s="50" t="str">
         <f>IF(ISBLANK($X$25),"I1",$X$25)</f>
         <v>Bastien</v>
@@ -3436,10 +3436,10 @@
       <c r="AD18" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AE18" s="109"/>
+      <c r="AE18" s="117"/>
       <c r="AF18" s="8"/>
-      <c r="AG18" s="109"/>
-      <c r="AH18" s="104"/>
+      <c r="AG18" s="117"/>
+      <c r="AH18" s="118"/>
       <c r="AI18" s="47" t="str">
         <f>IF(ISBLANK($AD$20),"K1",$AD$20)</f>
         <v>Staaany</v>
@@ -3447,11 +3447,11 @@
       <c r="AJ18" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AK18" s="109"/>
-      <c r="AL18" s="121"/>
+      <c r="AK18" s="117"/>
+      <c r="AL18" s="106"/>
       <c r="AM18" s="8"/>
-      <c r="AN18" s="109"/>
-      <c r="AO18" s="112"/>
+      <c r="AN18" s="117"/>
+      <c r="AO18" s="119"/>
       <c r="AP18" s="50" t="str">
         <f>IF(ISBLANK($AJ$18),"WF2",$AJ$18)</f>
         <v>Bastien</v>
@@ -3462,19 +3462,19 @@
       <c r="AR18" s="52">
         <v>75</v>
       </c>
-      <c r="AS18" s="109"/>
+      <c r="AS18" s="117"/>
       <c r="AT18" s="12"/>
       <c r="BA18" s="8"/>
       <c r="BB18" s="8"/>
       <c r="BC18" s="8"/>
       <c r="BD18" s="8"/>
-      <c r="BE18" s="119"/>
-    </row>
-    <row r="19" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE18" s="104"/>
+    </row>
+    <row r="19" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="117"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="43"/>
       <c r="D19" s="33" t="s">
         <v>54</v>
@@ -3495,8 +3495,8 @@
         <v>55</v>
       </c>
       <c r="K19" s="8"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="113"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="115"/>
       <c r="N19" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Bastien</v>
@@ -3505,7 +3505,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P19" s="104"/>
+      <c r="P19" s="118"/>
       <c r="Q19" s="47" t="str">
         <f t="array" ref="Q19">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B13))),"-")</f>
         <v>Gaster</v>
@@ -3513,10 +3513,10 @@
       <c r="R19" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="S19" s="109"/>
+      <c r="S19" s="117"/>
       <c r="T19" s="8"/>
-      <c r="U19" s="109"/>
-      <c r="V19" s="104"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="118"/>
       <c r="W19" s="47" t="str">
         <f>IF(ISBLANK($R$22),"B2",$R$22)</f>
         <v>AksL</v>
@@ -3524,10 +3524,10 @@
       <c r="X19" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="Y19" s="109"/>
+      <c r="Y19" s="117"/>
       <c r="Z19" s="8"/>
-      <c r="AA19" s="109"/>
-      <c r="AB19" s="104"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="118"/>
       <c r="AC19" s="47" t="str">
         <f>IF(ISBLANK($X$22),"H2",$X$22)</f>
         <v>Aibelle</v>
@@ -3535,10 +3535,10 @@
       <c r="AD19" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="AE19" s="109"/>
+      <c r="AE19" s="117"/>
       <c r="AF19" s="8"/>
-      <c r="AG19" s="109"/>
-      <c r="AH19" s="104"/>
+      <c r="AG19" s="117"/>
+      <c r="AH19" s="118"/>
       <c r="AI19" s="47" t="str">
         <f>IF(ISBLANK($AD$18),"J2",$AD$18)</f>
         <v>GoGu</v>
@@ -3546,11 +3546,11 @@
       <c r="AJ19" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="AK19" s="109"/>
-      <c r="AL19" s="121"/>
+      <c r="AK19" s="117"/>
+      <c r="AL19" s="106"/>
       <c r="AM19" s="8"/>
-      <c r="AN19" s="109"/>
-      <c r="AO19" s="112"/>
+      <c r="AN19" s="117"/>
+      <c r="AO19" s="119"/>
       <c r="AP19" s="50" t="str">
         <f>IF(ISBLANK($AJ$55),"LF1",$AJ$55)</f>
         <v>Batefimbi</v>
@@ -3561,19 +3561,19 @@
       <c r="AR19" s="55">
         <v>74</v>
       </c>
-      <c r="AS19" s="109"/>
+      <c r="AS19" s="117"/>
       <c r="AT19" s="12"/>
       <c r="BA19" s="8"/>
       <c r="BB19" s="8"/>
       <c r="BC19" s="8"/>
       <c r="BD19" s="8"/>
-      <c r="BE19" s="119"/>
-    </row>
-    <row r="20" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE19" s="104"/>
+    </row>
+    <row r="20" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="117"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="43"/>
       <c r="D20" s="33" t="s">
         <v>59</v>
@@ -3594,8 +3594,8 @@
         <v>60</v>
       </c>
       <c r="K20" s="8"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="113"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="115"/>
       <c r="N20" s="23" t="str">
         <f t="shared" si="0"/>
         <v>SewLink</v>
@@ -3604,7 +3604,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P20" s="104"/>
+      <c r="P20" s="118"/>
       <c r="Q20" s="56" t="str">
         <f t="array" ref="Q20">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B19))),"-")</f>
         <v>NELO</v>
@@ -3612,10 +3612,10 @@
       <c r="R20" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="S20" s="109"/>
+      <c r="S20" s="117"/>
       <c r="T20" s="8"/>
-      <c r="U20" s="109"/>
-      <c r="V20" s="104"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="118"/>
       <c r="W20" s="56" t="str">
         <f>IF(ISBLANK($R$34),"E2",$R$34)</f>
         <v>Voltar</v>
@@ -3623,10 +3623,10 @@
       <c r="X20" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="Y20" s="109"/>
+      <c r="Y20" s="117"/>
       <c r="Z20" s="8"/>
-      <c r="AA20" s="109"/>
-      <c r="AB20" s="104" t="s">
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="118" t="s">
         <v>62</v>
       </c>
       <c r="AC20" s="40" t="str">
@@ -3636,10 +3636,10 @@
       <c r="AD20" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AE20" s="109"/>
+      <c r="AE20" s="117"/>
       <c r="AF20" s="8"/>
-      <c r="AG20" s="109"/>
-      <c r="AH20" s="104"/>
+      <c r="AG20" s="117"/>
+      <c r="AH20" s="118"/>
       <c r="AI20" s="56" t="str">
         <f>IF(ISBLANK($AD$21),"K2",$AD$21)</f>
         <v>Batefimbi</v>
@@ -3647,11 +3647,11 @@
       <c r="AJ20" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="AK20" s="109"/>
-      <c r="AL20" s="121"/>
+      <c r="AK20" s="117"/>
+      <c r="AL20" s="106"/>
       <c r="AM20" s="8"/>
-      <c r="AN20" s="109"/>
-      <c r="AO20" s="112"/>
+      <c r="AN20" s="117"/>
+      <c r="AO20" s="119"/>
       <c r="AP20" s="59" t="str">
         <f>IF(ISBLANK($AJ$56),"LF2",$AJ$56)</f>
         <v>Staaany</v>
@@ -3662,7 +3662,7 @@
       <c r="AR20" s="48">
         <v>0</v>
       </c>
-      <c r="AS20" s="109"/>
+      <c r="AS20" s="117"/>
       <c r="AT20" s="12" t="s">
         <v>63</v>
       </c>
@@ -3670,13 +3670,13 @@
       <c r="BB20" s="8"/>
       <c r="BC20" s="8"/>
       <c r="BD20" s="8"/>
-      <c r="BE20" s="119"/>
-    </row>
-    <row r="21" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE20" s="104"/>
+    </row>
+    <row r="21" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="117"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="43"/>
       <c r="D21" s="33" t="s">
         <v>51</v>
@@ -3697,8 +3697,8 @@
         <v>65</v>
       </c>
       <c r="K21" s="8"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="113"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="115"/>
       <c r="N21" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Voltar</v>
@@ -3707,7 +3707,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="P21" s="104" t="s">
+      <c r="P21" s="118" t="s">
         <v>66</v>
       </c>
       <c r="Q21" s="37" t="str">
@@ -3717,10 +3717,10 @@
       <c r="R21" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="109"/>
+      <c r="S21" s="117"/>
       <c r="T21" s="8"/>
-      <c r="U21" s="109"/>
-      <c r="V21" s="104" t="s">
+      <c r="U21" s="117"/>
+      <c r="V21" s="118" t="s">
         <v>67</v>
       </c>
       <c r="W21" s="47" t="str">
@@ -3730,10 +3730,10 @@
       <c r="X21" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="Y21" s="109"/>
+      <c r="Y21" s="117"/>
       <c r="Z21" s="8"/>
-      <c r="AA21" s="109"/>
-      <c r="AB21" s="104"/>
+      <c r="AA21" s="117"/>
+      <c r="AB21" s="118"/>
       <c r="AC21" s="50" t="str">
         <f>IF(ISBLANK($X$18),"G2",$X$18)</f>
         <v>AksL</v>
@@ -3741,33 +3741,33 @@
       <c r="AD21" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="AE21" s="109"/>
+      <c r="AE21" s="117"/>
       <c r="AF21" s="8"/>
-      <c r="AG21" s="105"/>
-      <c r="AH21" s="105"/>
-      <c r="AI21" s="105"/>
-      <c r="AJ21" s="105"/>
-      <c r="AK21" s="105"/>
-      <c r="AL21" s="121"/>
+      <c r="AG21" s="114"/>
+      <c r="AH21" s="114"/>
+      <c r="AI21" s="114"/>
+      <c r="AJ21" s="114"/>
+      <c r="AK21" s="114"/>
+      <c r="AL21" s="106"/>
       <c r="AM21" s="8"/>
-      <c r="AN21" s="105"/>
-      <c r="AO21" s="105"/>
-      <c r="AP21" s="105"/>
-      <c r="AQ21" s="105"/>
-      <c r="AR21" s="105"/>
-      <c r="AS21" s="105"/>
+      <c r="AN21" s="114"/>
+      <c r="AO21" s="114"/>
+      <c r="AP21" s="114"/>
+      <c r="AQ21" s="114"/>
+      <c r="AR21" s="114"/>
+      <c r="AS21" s="114"/>
       <c r="AT21" s="12"/>
       <c r="BA21" s="8"/>
       <c r="BB21" s="8"/>
       <c r="BC21" s="8"/>
       <c r="BD21" s="8"/>
-      <c r="BE21" s="119"/>
-    </row>
-    <row r="22" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE21" s="104"/>
+    </row>
+    <row r="22" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="117"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="43"/>
       <c r="D22" s="33" t="s">
         <v>52</v>
@@ -3788,8 +3788,8 @@
         <v>69</v>
       </c>
       <c r="K22" s="8"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="113"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="115"/>
       <c r="N22" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Charasime</v>
@@ -3798,7 +3798,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P22" s="104"/>
+      <c r="P22" s="118"/>
       <c r="Q22" s="47" t="str">
         <f t="array" ref="Q22">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B8))),"-")</f>
         <v>AksL</v>
@@ -3806,10 +3806,10 @@
       <c r="R22" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="S22" s="109"/>
+      <c r="S22" s="117"/>
       <c r="T22" s="8"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="104"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="118"/>
       <c r="W22" s="47" t="str">
         <f>IF(ISBLANK($R$33),"E1",$R$33)</f>
         <v>Aibelle</v>
@@ -3817,10 +3817,10 @@
       <c r="X22" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="Y22" s="109"/>
+      <c r="Y22" s="117"/>
       <c r="Z22" s="8"/>
-      <c r="AA22" s="109"/>
-      <c r="AB22" s="104"/>
+      <c r="AA22" s="117"/>
+      <c r="AB22" s="118"/>
       <c r="AC22" s="56" t="str">
         <f>IF(ISBLANK($X$26),"I2",$X$26)</f>
         <v>Batefimbi</v>
@@ -3828,14 +3828,14 @@
       <c r="AD22" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="AE22" s="109"/>
+      <c r="AE22" s="117"/>
       <c r="AF22" s="8"/>
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
-      <c r="AL22" s="121"/>
+      <c r="AL22" s="106"/>
       <c r="AM22" s="8"/>
       <c r="AN22" s="8"/>
       <c r="AO22" s="8"/>
@@ -3848,13 +3848,13 @@
       <c r="BB22" s="8"/>
       <c r="BC22" s="8"/>
       <c r="BD22" s="8"/>
-      <c r="BE22" s="119"/>
-    </row>
-    <row r="23" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE22" s="104"/>
+    </row>
+    <row r="23" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="117"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="43"/>
       <c r="D23" s="33" t="s">
         <v>71</v>
@@ -3875,8 +3875,8 @@
         <v>72</v>
       </c>
       <c r="K23" s="8"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="113"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="115"/>
       <c r="N23" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Batefimbi</v>
@@ -3885,7 +3885,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P23" s="104"/>
+      <c r="P23" s="118"/>
       <c r="Q23" s="47" t="str">
         <f t="array" ref="Q23">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B14))),"-")</f>
         <v>Unmoutonrandom</v>
@@ -3893,10 +3893,10 @@
       <c r="R23" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="S23" s="109"/>
+      <c r="S23" s="117"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="109"/>
-      <c r="V23" s="104"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="118"/>
       <c r="W23" s="47" t="str">
         <f>IF(ISBLANK($R$26),"C2",$R$26)</f>
         <v>Kabag</v>
@@ -3904,20 +3904,20 @@
       <c r="X23" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="Y23" s="109"/>
+      <c r="Y23" s="117"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="105"/>
-      <c r="AB23" s="105"/>
-      <c r="AC23" s="105"/>
-      <c r="AD23" s="105"/>
-      <c r="AE23" s="105"/>
+      <c r="AA23" s="114"/>
+      <c r="AB23" s="114"/>
+      <c r="AC23" s="114"/>
+      <c r="AD23" s="114"/>
+      <c r="AE23" s="114"/>
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
-      <c r="AL23" s="121"/>
+      <c r="AL23" s="106"/>
       <c r="AM23" s="8"/>
       <c r="AN23" s="8"/>
       <c r="AO23" s="8"/>
@@ -3930,13 +3930,13 @@
       <c r="BB23" s="8"/>
       <c r="BC23" s="8"/>
       <c r="BD23" s="8"/>
-      <c r="BE23" s="119"/>
-    </row>
-    <row r="24" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE23" s="104"/>
+    </row>
+    <row r="24" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="117"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="43"/>
       <c r="D24" s="33" t="s">
         <v>76</v>
@@ -3957,8 +3957,8 @@
         <v>72</v>
       </c>
       <c r="K24" s="8"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="113"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="115"/>
       <c r="N24" s="23" t="str">
         <f t="shared" si="0"/>
         <v>AksL</v>
@@ -3967,7 +3967,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P24" s="104"/>
+      <c r="P24" s="118"/>
       <c r="Q24" s="56" t="str">
         <f t="array" ref="Q24">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B20))),"-")</f>
         <v>CraignezMoi22</v>
@@ -3975,10 +3975,10 @@
       <c r="R24" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="S24" s="109"/>
+      <c r="S24" s="117"/>
       <c r="T24" s="8"/>
-      <c r="U24" s="109"/>
-      <c r="V24" s="104"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="118"/>
       <c r="W24" s="56" t="str">
         <f>IF(ISBLANK($R$38),"F2",$R$38)</f>
         <v>Zniuum</v>
@@ -3986,7 +3986,7 @@
       <c r="X24" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Y24" s="109"/>
+      <c r="Y24" s="117"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="61"/>
@@ -3999,7 +3999,7 @@
       <c r="AI24" s="8"/>
       <c r="AJ24" s="8"/>
       <c r="AK24" s="8"/>
-      <c r="AL24" s="121"/>
+      <c r="AL24" s="106"/>
       <c r="AM24" s="8"/>
       <c r="AN24" s="8"/>
       <c r="AO24" s="8"/>
@@ -4012,13 +4012,13 @@
       <c r="BB24" s="8"/>
       <c r="BC24" s="8"/>
       <c r="BD24" s="8"/>
-      <c r="BE24" s="119"/>
-    </row>
-    <row r="25" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE24" s="104"/>
+    </row>
+    <row r="25" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="117"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="43"/>
       <c r="D25" s="33" t="s">
         <v>57</v>
@@ -4039,8 +4039,8 @@
         <v>80</v>
       </c>
       <c r="K25" s="8"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="113"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="115"/>
       <c r="N25" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Supnyus</v>
@@ -4049,7 +4049,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P25" s="104" t="s">
+      <c r="P25" s="118" t="s">
         <v>81</v>
       </c>
       <c r="Q25" s="37" t="str">
@@ -4059,10 +4059,10 @@
       <c r="R25" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="S25" s="109"/>
+      <c r="S25" s="117"/>
       <c r="T25" s="8"/>
-      <c r="U25" s="109"/>
-      <c r="V25" s="104" t="s">
+      <c r="U25" s="117"/>
+      <c r="V25" s="118" t="s">
         <v>82</v>
       </c>
       <c r="W25" s="47" t="str">
@@ -4072,7 +4072,7 @@
       <c r="X25" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="Y25" s="109"/>
+      <c r="Y25" s="117"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
@@ -4085,28 +4085,28 @@
       <c r="AI25" s="8"/>
       <c r="AJ25" s="8"/>
       <c r="AK25" s="8"/>
-      <c r="AL25" s="121"/>
+      <c r="AL25" s="106"/>
       <c r="AM25" s="8"/>
-      <c r="AN25" s="111" t="s">
+      <c r="AN25" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="AO25" s="111"/>
-      <c r="AP25" s="111"/>
-      <c r="AQ25" s="111"/>
-      <c r="AR25" s="111"/>
-      <c r="AS25" s="111"/>
+      <c r="AO25" s="112"/>
+      <c r="AP25" s="112"/>
+      <c r="AQ25" s="112"/>
+      <c r="AR25" s="112"/>
+      <c r="AS25" s="112"/>
       <c r="AT25" s="12"/>
       <c r="BA25" s="8"/>
       <c r="BB25" s="8"/>
       <c r="BC25" s="8"/>
       <c r="BD25" s="8"/>
-      <c r="BE25" s="119"/>
-    </row>
-    <row r="26" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE25" s="104"/>
+    </row>
+    <row r="26" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="117"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="43"/>
       <c r="D26" s="33" t="s">
         <v>78</v>
@@ -4127,8 +4127,8 @@
         <v>80</v>
       </c>
       <c r="K26" s="8"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="113"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="115"/>
       <c r="N26" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Groluche</v>
@@ -4137,7 +4137,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P26" s="104"/>
+      <c r="P26" s="118"/>
       <c r="Q26" s="47" t="str">
         <f t="array" ref="Q26">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B9))),"-")</f>
         <v>Supnyus</v>
@@ -4145,10 +4145,10 @@
       <c r="R26" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="S26" s="109"/>
+      <c r="S26" s="117"/>
       <c r="T26" s="8"/>
-      <c r="U26" s="109"/>
-      <c r="V26" s="104"/>
+      <c r="U26" s="117"/>
+      <c r="V26" s="118"/>
       <c r="W26" s="47" t="str">
         <f>IF(ISBLANK($R$37),"F1",$R$37)</f>
         <v>Charasime</v>
@@ -4156,7 +4156,7 @@
       <c r="X26" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="Y26" s="109"/>
+      <c r="Y26" s="117"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
@@ -4169,26 +4169,26 @@
       <c r="AI26" s="8"/>
       <c r="AJ26" s="8"/>
       <c r="AK26" s="8"/>
-      <c r="AL26" s="121"/>
+      <c r="AL26" s="106"/>
       <c r="AM26" s="8"/>
-      <c r="AN26" s="111"/>
-      <c r="AO26" s="111"/>
-      <c r="AP26" s="111"/>
-      <c r="AQ26" s="111"/>
-      <c r="AR26" s="111"/>
-      <c r="AS26" s="111"/>
+      <c r="AN26" s="112"/>
+      <c r="AO26" s="112"/>
+      <c r="AP26" s="112"/>
+      <c r="AQ26" s="112"/>
+      <c r="AR26" s="112"/>
+      <c r="AS26" s="112"/>
       <c r="AT26" s="12"/>
       <c r="BA26" s="8"/>
       <c r="BB26" s="8"/>
       <c r="BC26" s="8"/>
       <c r="BD26" s="8"/>
-      <c r="BE26" s="119"/>
-    </row>
-    <row r="27" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE26" s="104"/>
+    </row>
+    <row r="27" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="117"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="43"/>
       <c r="D27" s="33" t="s">
         <v>61</v>
@@ -4209,8 +4209,8 @@
         <v>86</v>
       </c>
       <c r="K27" s="8"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="113"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="115"/>
       <c r="N27" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Aibelle</v>
@@ -4219,7 +4219,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="P27" s="104"/>
+      <c r="P27" s="118"/>
       <c r="Q27" s="47" t="str">
         <f t="array" ref="Q27">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B15))),"-")</f>
         <v>Kabag</v>
@@ -4227,10 +4227,10 @@
       <c r="R27" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="S27" s="109"/>
+      <c r="S27" s="117"/>
       <c r="T27" s="8"/>
-      <c r="U27" s="109"/>
-      <c r="V27" s="104"/>
+      <c r="U27" s="117"/>
+      <c r="V27" s="118"/>
       <c r="W27" s="47" t="str">
         <f>IF(ISBLANK($R$18),"A2",$R$18)</f>
         <v>Batefimbi</v>
@@ -4238,7 +4238,7 @@
       <c r="X27" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="Y27" s="109"/>
+      <c r="Y27" s="117"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
@@ -4251,26 +4251,26 @@
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="121"/>
+      <c r="AL27" s="106"/>
       <c r="AM27" s="8"/>
-      <c r="AN27" s="111"/>
-      <c r="AO27" s="111"/>
-      <c r="AP27" s="111"/>
-      <c r="AQ27" s="111"/>
-      <c r="AR27" s="111"/>
-      <c r="AS27" s="111"/>
+      <c r="AN27" s="112"/>
+      <c r="AO27" s="112"/>
+      <c r="AP27" s="112"/>
+      <c r="AQ27" s="112"/>
+      <c r="AR27" s="112"/>
+      <c r="AS27" s="112"/>
       <c r="AT27" s="12"/>
       <c r="BA27" s="8"/>
       <c r="BB27" s="8"/>
       <c r="BC27" s="8"/>
       <c r="BD27" s="8"/>
-      <c r="BE27" s="119"/>
-    </row>
-    <row r="28" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE27" s="104"/>
+    </row>
+    <row r="28" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="117"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="43"/>
       <c r="D28" s="33" t="s">
         <v>73</v>
@@ -4291,8 +4291,8 @@
         <v>86</v>
       </c>
       <c r="K28" s="8"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="113"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="115"/>
       <c r="N28" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Zniuum</v>
@@ -4301,7 +4301,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="P28" s="104"/>
+      <c r="P28" s="118"/>
       <c r="Q28" s="56" t="str">
         <f t="array" ref="Q28">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B21))),"-")</f>
         <v>Leas</v>
@@ -4309,10 +4309,10 @@
       <c r="R28" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="S28" s="109"/>
+      <c r="S28" s="117"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="109"/>
-      <c r="V28" s="104"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="118"/>
       <c r="W28" s="47" t="str">
         <f>IF(ISBLANK($R$30),"D2",$R$30)</f>
         <v>Groluche</v>
@@ -4320,7 +4320,7 @@
       <c r="X28" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="Y28" s="109"/>
+      <c r="Y28" s="117"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
@@ -4333,26 +4333,26 @@
       <c r="AI28" s="8"/>
       <c r="AJ28" s="8"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="121"/>
+      <c r="AL28" s="106"/>
       <c r="AM28" s="8"/>
-      <c r="AN28" s="105"/>
-      <c r="AO28" s="105"/>
-      <c r="AP28" s="105"/>
-      <c r="AQ28" s="105"/>
-      <c r="AR28" s="105"/>
-      <c r="AS28" s="105"/>
+      <c r="AN28" s="114"/>
+      <c r="AO28" s="114"/>
+      <c r="AP28" s="114"/>
+      <c r="AQ28" s="114"/>
+      <c r="AR28" s="114"/>
+      <c r="AS28" s="114"/>
       <c r="AT28" s="12"/>
       <c r="BA28" s="8"/>
       <c r="BB28" s="8"/>
       <c r="BC28" s="8"/>
       <c r="BD28" s="8"/>
-      <c r="BE28" s="119"/>
-    </row>
-    <row r="29" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BE28" s="104"/>
+    </row>
+    <row r="29" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="117"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="43"/>
       <c r="D29" s="33" t="s">
         <v>74</v>
@@ -4373,8 +4373,8 @@
         <v>86</v>
       </c>
       <c r="K29" s="8"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="113"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="115"/>
       <c r="N29" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Gaster</v>
@@ -4383,7 +4383,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="P29" s="104" t="s">
+      <c r="P29" s="118" t="s">
         <v>90</v>
       </c>
       <c r="Q29" s="37" t="str">
@@ -4393,13 +4393,13 @@
       <c r="R29" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="S29" s="109"/>
+      <c r="S29" s="117"/>
       <c r="T29" s="8"/>
-      <c r="U29" s="105"/>
-      <c r="V29" s="105"/>
-      <c r="W29" s="105"/>
-      <c r="X29" s="105"/>
-      <c r="Y29" s="105"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="114"/>
+      <c r="Y29" s="114"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
@@ -4412,30 +4412,30 @@
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="121"/>
+      <c r="AL29" s="106"/>
       <c r="AM29" s="8"/>
-      <c r="AN29" s="109"/>
+      <c r="AN29" s="117"/>
       <c r="AO29" s="26">
         <v>8</v>
       </c>
-      <c r="AP29" s="108" t="s">
+      <c r="AP29" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="AQ29" s="108"/>
-      <c r="AR29" s="108"/>
-      <c r="AS29" s="109"/>
+      <c r="AQ29" s="116"/>
+      <c r="AR29" s="116"/>
+      <c r="AS29" s="117"/>
       <c r="AT29" s="12"/>
       <c r="BA29" s="8"/>
       <c r="BB29" s="8"/>
       <c r="BC29" s="8"/>
       <c r="BD29" s="8"/>
-      <c r="BE29" s="119"/>
-    </row>
-    <row r="30" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE29" s="104"/>
+    </row>
+    <row r="30" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="117"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="43"/>
       <c r="D30" s="33" t="s">
         <v>92</v>
@@ -4456,8 +4456,8 @@
         <v>93</v>
       </c>
       <c r="K30" s="8"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="113"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="115"/>
       <c r="N30" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Unmoutonrandom</v>
@@ -4466,7 +4466,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="P30" s="104"/>
+      <c r="P30" s="118"/>
       <c r="Q30" s="47" t="str">
         <f t="array" ref="Q30">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B10))),"-")</f>
         <v>Groluche</v>
@@ -4474,7 +4474,7 @@
       <c r="R30" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="S30" s="109"/>
+      <c r="S30" s="117"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="64"/>
@@ -4493,9 +4493,9 @@
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8"/>
-      <c r="AL30" s="121"/>
+      <c r="AL30" s="106"/>
       <c r="AM30" s="8"/>
-      <c r="AN30" s="109"/>
+      <c r="AN30" s="117"/>
       <c r="AO30" s="30" t="s">
         <v>36</v>
       </c>
@@ -4508,19 +4508,19 @@
       <c r="AR30" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AS30" s="109"/>
+      <c r="AS30" s="117"/>
       <c r="AT30" s="12"/>
       <c r="BA30" s="8"/>
       <c r="BB30" s="8"/>
       <c r="BC30" s="8"/>
       <c r="BD30" s="8"/>
-      <c r="BE30" s="119"/>
-    </row>
-    <row r="31" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE30" s="104"/>
+    </row>
+    <row r="31" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="117"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="43"/>
       <c r="D31" s="45" t="s">
         <v>95</v>
@@ -4541,8 +4541,8 @@
         <v>93</v>
       </c>
       <c r="K31" s="65"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="113"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="115"/>
       <c r="N31" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Kabag</v>
@@ -4551,7 +4551,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="P31" s="104"/>
+      <c r="P31" s="118"/>
       <c r="Q31" s="47" t="str">
         <f t="array" ref="Q31">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B16))),"-")</f>
         <v>Normanfaitdesvidéos</v>
@@ -4559,7 +4559,7 @@
       <c r="R31" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="S31" s="109"/>
+      <c r="S31" s="117"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="64"/>
@@ -4578,10 +4578,10 @@
       <c r="AI31" s="8"/>
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
-      <c r="AL31" s="121"/>
+      <c r="AL31" s="106"/>
       <c r="AM31" s="8"/>
-      <c r="AN31" s="109"/>
-      <c r="AO31" s="112" t="s">
+      <c r="AN31" s="117"/>
+      <c r="AO31" s="119" t="s">
         <v>96</v>
       </c>
       <c r="AP31" s="40" t="str">
@@ -4594,19 +4594,19 @@
       <c r="AR31" s="42">
         <v>100</v>
       </c>
-      <c r="AS31" s="109"/>
+      <c r="AS31" s="117"/>
       <c r="AT31" s="12"/>
       <c r="BA31" s="8"/>
       <c r="BB31" s="8"/>
       <c r="BC31" s="8"/>
       <c r="BD31" s="8"/>
-      <c r="BE31" s="119"/>
-    </row>
-    <row r="32" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE31" s="104"/>
+    </row>
+    <row r="32" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="117"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="43"/>
       <c r="D32" s="33" t="s">
         <v>98</v>
@@ -4627,8 +4627,8 @@
         <v>93</v>
       </c>
       <c r="K32" s="65"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="113"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="115"/>
       <c r="N32" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Normanfaitdesvidéos</v>
@@ -4637,7 +4637,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="P32" s="104"/>
+      <c r="P32" s="118"/>
       <c r="Q32" s="56" t="str">
         <f t="array" ref="Q32">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B22))),"-")</f>
         <v>Oliviaaaa</v>
@@ -4645,7 +4645,7 @@
       <c r="R32" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="S32" s="109"/>
+      <c r="S32" s="117"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="64"/>
@@ -4664,10 +4664,10 @@
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
-      <c r="AL32" s="121"/>
+      <c r="AL32" s="106"/>
       <c r="AM32" s="8"/>
-      <c r="AN32" s="109"/>
-      <c r="AO32" s="112"/>
+      <c r="AN32" s="117"/>
+      <c r="AO32" s="119"/>
       <c r="AP32" s="50" t="str">
         <f>IF(ISBLANK($AJ$58),"LF4",$AJ$58)</f>
         <v>NELO</v>
@@ -4678,19 +4678,19 @@
       <c r="AR32" s="52">
         <v>97</v>
       </c>
-      <c r="AS32" s="109"/>
+      <c r="AS32" s="117"/>
       <c r="AT32" s="12"/>
       <c r="BA32" s="8"/>
       <c r="BB32" s="8"/>
       <c r="BC32" s="8"/>
       <c r="BD32" s="8"/>
-      <c r="BE32" s="119"/>
-    </row>
-    <row r="33" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE32" s="104"/>
+    </row>
+    <row r="33" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="117"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="43"/>
       <c r="D33" s="33" t="s">
         <v>56</v>
@@ -4711,8 +4711,8 @@
         <v>101</v>
       </c>
       <c r="K33" s="65"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="113"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="115"/>
       <c r="N33" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Asbow</v>
@@ -4721,7 +4721,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="P33" s="104" t="s">
+      <c r="P33" s="118" t="s">
         <v>102</v>
       </c>
       <c r="Q33" s="37" t="str">
@@ -4731,7 +4731,7 @@
       <c r="R33" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="S33" s="109"/>
+      <c r="S33" s="117"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
@@ -4750,10 +4750,10 @@
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8"/>
       <c r="AK33" s="8"/>
-      <c r="AL33" s="121"/>
+      <c r="AL33" s="106"/>
       <c r="AM33" s="8"/>
-      <c r="AN33" s="109"/>
-      <c r="AO33" s="112"/>
+      <c r="AN33" s="117"/>
+      <c r="AO33" s="119"/>
       <c r="AP33" s="50" t="str">
         <f>IF(ISBLANK($AD$56),"R2",$AD$56)</f>
         <v>Kabag</v>
@@ -4764,19 +4764,19 @@
       <c r="AR33" s="55">
         <v>93</v>
       </c>
-      <c r="AS33" s="109"/>
+      <c r="AS33" s="117"/>
       <c r="AT33" s="12"/>
       <c r="BA33" s="8"/>
       <c r="BB33" s="8"/>
       <c r="BC33" s="8"/>
       <c r="BD33" s="8"/>
-      <c r="BE33" s="119"/>
-    </row>
-    <row r="34" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE33" s="104"/>
+    </row>
+    <row r="34" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="117"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="43"/>
       <c r="D34" s="33" t="s">
         <v>77</v>
@@ -4797,8 +4797,8 @@
         <v>101</v>
       </c>
       <c r="K34" s="65"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="113"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="115"/>
       <c r="N34" s="23" t="str">
         <f t="shared" si="0"/>
         <v>DARKLORD</v>
@@ -4807,7 +4807,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="P34" s="104"/>
+      <c r="P34" s="118"/>
       <c r="Q34" s="47" t="str">
         <f t="array" ref="Q34">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B11))),"-")</f>
         <v>Aibelle</v>
@@ -4815,7 +4815,7 @@
       <c r="R34" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="S34" s="109"/>
+      <c r="S34" s="117"/>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
@@ -4834,10 +4834,10 @@
       <c r="AI34" s="8"/>
       <c r="AJ34" s="8"/>
       <c r="AK34" s="8"/>
-      <c r="AL34" s="121"/>
+      <c r="AL34" s="106"/>
       <c r="AM34" s="8"/>
-      <c r="AN34" s="109"/>
-      <c r="AO34" s="112"/>
+      <c r="AN34" s="117"/>
+      <c r="AO34" s="119"/>
       <c r="AP34" s="59" t="str">
         <f>IF(ISBLANK($AD$60),"S2",$AD$60)</f>
         <v>Gaster</v>
@@ -4848,19 +4848,19 @@
       <c r="AR34" s="48">
         <v>78</v>
       </c>
-      <c r="AS34" s="109"/>
+      <c r="AS34" s="117"/>
       <c r="AT34" s="12"/>
       <c r="BA34" s="8"/>
       <c r="BB34" s="8"/>
       <c r="BC34" s="8"/>
       <c r="BD34" s="8"/>
-      <c r="BE34" s="119"/>
-    </row>
-    <row r="35" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE34" s="104"/>
+    </row>
+    <row r="35" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="117"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="43"/>
       <c r="D35" s="33" t="s">
         <v>87</v>
@@ -4881,8 +4881,8 @@
         <v>101</v>
       </c>
       <c r="K35" s="65"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="113"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="115"/>
       <c r="N35" s="23" t="str">
         <f t="shared" si="0"/>
         <v>NELO</v>
@@ -4891,7 +4891,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="P35" s="104"/>
+      <c r="P35" s="118"/>
       <c r="Q35" s="47" t="str">
         <f t="array" ref="Q35">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B17))),"-")</f>
         <v>Asbow</v>
@@ -4899,7 +4899,7 @@
       <c r="R35" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="S35" s="109"/>
+      <c r="S35" s="117"/>
       <c r="T35" s="66"/>
       <c r="U35" s="66"/>
       <c r="V35" s="66"/>
@@ -4918,26 +4918,26 @@
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
-      <c r="AL35" s="121"/>
+      <c r="AL35" s="106"/>
       <c r="AM35" s="8"/>
-      <c r="AN35" s="105"/>
-      <c r="AO35" s="105"/>
-      <c r="AP35" s="105"/>
-      <c r="AQ35" s="105"/>
-      <c r="AR35" s="105"/>
-      <c r="AS35" s="105"/>
+      <c r="AN35" s="114"/>
+      <c r="AO35" s="114"/>
+      <c r="AP35" s="114"/>
+      <c r="AQ35" s="114"/>
+      <c r="AR35" s="114"/>
+      <c r="AS35" s="114"/>
       <c r="AT35" s="12"/>
       <c r="BA35" s="8"/>
       <c r="BB35" s="8"/>
       <c r="BC35" s="8"/>
       <c r="BD35" s="8"/>
-      <c r="BE35" s="119"/>
-    </row>
-    <row r="36" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE35" s="104"/>
+    </row>
+    <row r="36" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="117"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="43"/>
       <c r="D36" s="33" t="s">
         <v>99</v>
@@ -4958,8 +4958,8 @@
         <v>106</v>
       </c>
       <c r="K36" s="65"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="113"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="115"/>
       <c r="N36" s="23" t="str">
         <f t="shared" si="0"/>
         <v>CraignezMoi22</v>
@@ -4968,7 +4968,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P36" s="104"/>
+      <c r="P36" s="118"/>
       <c r="Q36" s="56" t="str">
         <f t="array" ref="Q36">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B23))),"-")</f>
         <v>-</v>
@@ -4976,7 +4976,7 @@
       <c r="R36" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="S36" s="109"/>
+      <c r="S36" s="117"/>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
@@ -4995,7 +4995,7 @@
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8"/>
       <c r="AK36" s="8"/>
-      <c r="AL36" s="121"/>
+      <c r="AL36" s="106"/>
       <c r="AM36" s="8"/>
       <c r="AN36" s="8"/>
       <c r="AO36" s="8"/>
@@ -5014,13 +5014,13 @@
       <c r="BB36" s="8"/>
       <c r="BC36" s="8"/>
       <c r="BD36" s="8"/>
-      <c r="BE36" s="119"/>
-    </row>
-    <row r="37" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE36" s="104"/>
+    </row>
+    <row r="37" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="117"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="43"/>
       <c r="D37" s="33" t="s">
         <v>107</v>
@@ -5041,8 +5041,8 @@
         <v>106</v>
       </c>
       <c r="K37" s="65"/>
-      <c r="L37" s="121"/>
-      <c r="M37" s="113"/>
+      <c r="L37" s="106"/>
+      <c r="M37" s="115"/>
       <c r="N37" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Leas</v>
@@ -5051,7 +5051,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="P37" s="104" t="s">
+      <c r="P37" s="118" t="s">
         <v>109</v>
       </c>
       <c r="Q37" s="37" t="str">
@@ -5061,7 +5061,7 @@
       <c r="R37" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="S37" s="109"/>
+      <c r="S37" s="117"/>
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
@@ -5080,7 +5080,7 @@
       <c r="AI37" s="8"/>
       <c r="AJ37" s="8"/>
       <c r="AK37" s="8"/>
-      <c r="AL37" s="121"/>
+      <c r="AL37" s="106"/>
       <c r="AM37" s="8"/>
       <c r="AN37" s="8"/>
       <c r="AO37" s="8"/>
@@ -5099,13 +5099,13 @@
       <c r="BB37" s="8"/>
       <c r="BC37" s="8"/>
       <c r="BD37" s="8"/>
-      <c r="BE37" s="119"/>
-    </row>
-    <row r="38" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE37" s="104"/>
+    </row>
+    <row r="38" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="117"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="43"/>
       <c r="D38" s="67" t="s">
         <v>107</v>
@@ -5126,8 +5126,8 @@
         <v>106</v>
       </c>
       <c r="K38" s="65"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="113"/>
+      <c r="L38" s="106"/>
+      <c r="M38" s="115"/>
       <c r="N38" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Oliviaaaa</v>
@@ -5136,7 +5136,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="P38" s="104"/>
+      <c r="P38" s="118"/>
       <c r="Q38" s="47" t="str">
         <f t="array" ref="Q38">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B12))),"-")</f>
         <v>Zniuum</v>
@@ -5144,7 +5144,7 @@
       <c r="R38" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="S38" s="109"/>
+      <c r="S38" s="117"/>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
@@ -5163,7 +5163,7 @@
       <c r="AI38" s="8"/>
       <c r="AJ38" s="62"/>
       <c r="AK38" s="8"/>
-      <c r="AL38" s="121"/>
+      <c r="AL38" s="106"/>
       <c r="AM38" s="8"/>
       <c r="AN38" s="8"/>
       <c r="AO38" s="8"/>
@@ -5182,13 +5182,13 @@
       <c r="BB38" s="8"/>
       <c r="BC38" s="8"/>
       <c r="BD38" s="8"/>
-      <c r="BE38" s="119"/>
-    </row>
-    <row r="39" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE38" s="104"/>
+    </row>
+    <row r="39" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="117"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="43"/>
       <c r="D39" s="71"/>
       <c r="E39" s="14"/>
@@ -5198,8 +5198,8 @@
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="65"/>
-      <c r="L39" s="121"/>
-      <c r="M39" s="113"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="115"/>
       <c r="N39" s="23" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
@@ -5208,7 +5208,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P39" s="104"/>
+      <c r="P39" s="118"/>
       <c r="Q39" s="47" t="str">
         <f t="array" ref="Q39">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B18))),"-")</f>
         <v>DARKLORD</v>
@@ -5216,7 +5216,7 @@
       <c r="R39" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="S39" s="109"/>
+      <c r="S39" s="117"/>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
@@ -5235,7 +5235,7 @@
       <c r="AI39" s="8"/>
       <c r="AJ39" s="8"/>
       <c r="AK39" s="8"/>
-      <c r="AL39" s="121"/>
+      <c r="AL39" s="106"/>
       <c r="AM39" s="8"/>
       <c r="AN39" s="8"/>
       <c r="AO39" s="8"/>
@@ -5254,13 +5254,13 @@
       <c r="BB39" s="8"/>
       <c r="BC39" s="8"/>
       <c r="BD39" s="8"/>
-      <c r="BE39" s="119"/>
-    </row>
-    <row r="40" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE39" s="104"/>
+    </row>
+    <row r="40" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="117"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="43"/>
       <c r="D40" s="71"/>
       <c r="E40" s="14"/>
@@ -5270,8 +5270,8 @@
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="65"/>
-      <c r="L40" s="121"/>
-      <c r="M40" s="113"/>
+      <c r="L40" s="106"/>
+      <c r="M40" s="115"/>
       <c r="N40" s="23" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
@@ -5280,7 +5280,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P40" s="104"/>
+      <c r="P40" s="118"/>
       <c r="Q40" s="56" t="str">
         <f t="array" ref="Q40">IFERROR(INDEX($N$17:$N$40,SMALL($O$17:$O$40,ROW(B24))),"-")</f>
         <v>-</v>
@@ -5288,7 +5288,7 @@
       <c r="R40" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="S40" s="109"/>
+      <c r="S40" s="117"/>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
@@ -5307,7 +5307,7 @@
       <c r="AI40" s="8"/>
       <c r="AJ40" s="8"/>
       <c r="AK40" s="8"/>
-      <c r="AL40" s="121"/>
+      <c r="AL40" s="106"/>
       <c r="AM40" s="8"/>
       <c r="AN40" s="8"/>
       <c r="AO40" s="8"/>
@@ -5326,13 +5326,13 @@
       <c r="BB40" s="8"/>
       <c r="BC40" s="8"/>
       <c r="BD40" s="8"/>
-      <c r="BE40" s="119"/>
-    </row>
-    <row r="41" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE40" s="104"/>
+    </row>
+    <row r="41" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="117"/>
+      <c r="B41" s="102"/>
       <c r="C41" s="43"/>
       <c r="D41" s="71"/>
       <c r="E41" s="14"/>
@@ -5342,14 +5342,14 @@
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="65"/>
-      <c r="L41" s="121"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="105"/>
-      <c r="O41" s="105"/>
-      <c r="P41" s="105"/>
-      <c r="Q41" s="105"/>
-      <c r="R41" s="105"/>
-      <c r="S41" s="105"/>
+      <c r="L41" s="106"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="114"/>
+      <c r="Q41" s="114"/>
+      <c r="R41" s="114"/>
+      <c r="S41" s="114"/>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
@@ -5368,7 +5368,7 @@
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
-      <c r="AL41" s="121"/>
+      <c r="AL41" s="106"/>
       <c r="AM41" s="8"/>
       <c r="AN41" s="8"/>
       <c r="AO41" s="8"/>
@@ -5387,13 +5387,13 @@
       <c r="BB41" s="8"/>
       <c r="BC41" s="8"/>
       <c r="BD41" s="8"/>
-      <c r="BE41" s="119"/>
-    </row>
-    <row r="42" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE41" s="104"/>
+    </row>
+    <row r="42" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="117"/>
+      <c r="B42" s="102"/>
       <c r="C42" s="43"/>
       <c r="D42" s="71"/>
       <c r="E42" s="14"/>
@@ -5403,7 +5403,7 @@
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="65"/>
-      <c r="L42" s="121"/>
+      <c r="L42" s="106"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
@@ -5429,7 +5429,7 @@
       <c r="AI42" s="8"/>
       <c r="AJ42" s="8"/>
       <c r="AK42" s="8"/>
-      <c r="AL42" s="121"/>
+      <c r="AL42" s="106"/>
       <c r="AM42" s="8"/>
       <c r="AN42" s="8"/>
       <c r="AO42" s="8"/>
@@ -5448,13 +5448,13 @@
       <c r="BB42" s="8"/>
       <c r="BC42" s="8"/>
       <c r="BD42" s="8"/>
-      <c r="BE42" s="119"/>
-    </row>
-    <row r="43" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE42" s="104"/>
+    </row>
+    <row r="43" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="117"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="43"/>
       <c r="D43" s="71"/>
       <c r="E43" s="14"/>
@@ -5464,7 +5464,7 @@
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="65"/>
-      <c r="L43" s="121"/>
+      <c r="L43" s="106"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
@@ -5490,7 +5490,7 @@
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8"/>
       <c r="AK43" s="8"/>
-      <c r="AL43" s="121"/>
+      <c r="AL43" s="106"/>
       <c r="AM43" s="8"/>
       <c r="AN43" s="8"/>
       <c r="AO43" s="8"/>
@@ -5509,13 +5509,13 @@
       <c r="BB43" s="8"/>
       <c r="BC43" s="8"/>
       <c r="BD43" s="8"/>
-      <c r="BE43" s="119"/>
-    </row>
-    <row r="44" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE43" s="104"/>
+    </row>
+    <row r="44" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="117"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="43"/>
       <c r="D44" s="71"/>
       <c r="E44" s="14"/>
@@ -5525,35 +5525,35 @@
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="65"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="110" t="s">
+      <c r="L44" s="106"/>
+      <c r="M44" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="N44" s="110"/>
-      <c r="O44" s="110"/>
-      <c r="P44" s="110"/>
-      <c r="Q44" s="110"/>
-      <c r="R44" s="110"/>
-      <c r="S44" s="110"/>
-      <c r="T44" s="110"/>
-      <c r="U44" s="110"/>
-      <c r="V44" s="110"/>
-      <c r="W44" s="110"/>
-      <c r="X44" s="110"/>
-      <c r="Y44" s="110"/>
-      <c r="Z44" s="110"/>
-      <c r="AA44" s="110"/>
-      <c r="AB44" s="110"/>
-      <c r="AC44" s="110"/>
-      <c r="AD44" s="110"/>
-      <c r="AE44" s="110"/>
-      <c r="AF44" s="110"/>
-      <c r="AG44" s="110"/>
-      <c r="AH44" s="110"/>
-      <c r="AI44" s="110"/>
-      <c r="AJ44" s="110"/>
-      <c r="AK44" s="110"/>
-      <c r="AL44" s="121"/>
+      <c r="N44" s="120"/>
+      <c r="O44" s="120"/>
+      <c r="P44" s="120"/>
+      <c r="Q44" s="120"/>
+      <c r="R44" s="120"/>
+      <c r="S44" s="120"/>
+      <c r="T44" s="120"/>
+      <c r="U44" s="120"/>
+      <c r="V44" s="120"/>
+      <c r="W44" s="120"/>
+      <c r="X44" s="120"/>
+      <c r="Y44" s="120"/>
+      <c r="Z44" s="120"/>
+      <c r="AA44" s="120"/>
+      <c r="AB44" s="120"/>
+      <c r="AC44" s="120"/>
+      <c r="AD44" s="120"/>
+      <c r="AE44" s="120"/>
+      <c r="AF44" s="120"/>
+      <c r="AG44" s="120"/>
+      <c r="AH44" s="120"/>
+      <c r="AI44" s="120"/>
+      <c r="AJ44" s="120"/>
+      <c r="AK44" s="120"/>
+      <c r="AL44" s="106"/>
       <c r="AM44" s="8"/>
       <c r="AN44" s="8"/>
       <c r="AO44" s="8"/>
@@ -5572,13 +5572,13 @@
       <c r="BB44" s="8"/>
       <c r="BC44" s="8"/>
       <c r="BD44" s="8"/>
-      <c r="BE44" s="119"/>
-    </row>
-    <row r="45" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE44" s="104"/>
+    </row>
+    <row r="45" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B45" s="117"/>
+      <c r="B45" s="102"/>
       <c r="C45" s="43"/>
       <c r="D45" s="71"/>
       <c r="E45" s="14"/>
@@ -5588,33 +5588,33 @@
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
       <c r="K45" s="65"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="110"/>
-      <c r="N45" s="110"/>
-      <c r="O45" s="110"/>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="110"/>
-      <c r="R45" s="110"/>
-      <c r="S45" s="110"/>
-      <c r="T45" s="110"/>
-      <c r="U45" s="110"/>
-      <c r="V45" s="110"/>
-      <c r="W45" s="110"/>
-      <c r="X45" s="110"/>
-      <c r="Y45" s="110"/>
-      <c r="Z45" s="110"/>
-      <c r="AA45" s="110"/>
-      <c r="AB45" s="110"/>
-      <c r="AC45" s="110"/>
-      <c r="AD45" s="110"/>
-      <c r="AE45" s="110"/>
-      <c r="AF45" s="110"/>
-      <c r="AG45" s="110"/>
-      <c r="AH45" s="110"/>
-      <c r="AI45" s="110"/>
-      <c r="AJ45" s="110"/>
-      <c r="AK45" s="110"/>
-      <c r="AL45" s="121"/>
+      <c r="L45" s="106"/>
+      <c r="M45" s="120"/>
+      <c r="N45" s="120"/>
+      <c r="O45" s="120"/>
+      <c r="P45" s="120"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="120"/>
+      <c r="S45" s="120"/>
+      <c r="T45" s="120"/>
+      <c r="U45" s="120"/>
+      <c r="V45" s="120"/>
+      <c r="W45" s="120"/>
+      <c r="X45" s="120"/>
+      <c r="Y45" s="120"/>
+      <c r="Z45" s="120"/>
+      <c r="AA45" s="120"/>
+      <c r="AB45" s="120"/>
+      <c r="AC45" s="120"/>
+      <c r="AD45" s="120"/>
+      <c r="AE45" s="120"/>
+      <c r="AF45" s="120"/>
+      <c r="AG45" s="120"/>
+      <c r="AH45" s="120"/>
+      <c r="AI45" s="120"/>
+      <c r="AJ45" s="120"/>
+      <c r="AK45" s="120"/>
+      <c r="AL45" s="106"/>
       <c r="AM45" s="8"/>
       <c r="AN45" s="8"/>
       <c r="AO45" s="8"/>
@@ -5633,13 +5633,13 @@
       <c r="BB45" s="8"/>
       <c r="BC45" s="8"/>
       <c r="BD45" s="8"/>
-      <c r="BE45" s="119"/>
-    </row>
-    <row r="46" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE45" s="104"/>
+    </row>
+    <row r="46" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="117"/>
+      <c r="B46" s="102"/>
       <c r="C46" s="43"/>
       <c r="D46" s="71"/>
       <c r="E46" s="14"/>
@@ -5649,33 +5649,33 @@
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
       <c r="K46" s="65"/>
-      <c r="L46" s="121"/>
-      <c r="M46" s="110"/>
-      <c r="N46" s="110"/>
-      <c r="O46" s="110"/>
-      <c r="P46" s="110"/>
-      <c r="Q46" s="110"/>
-      <c r="R46" s="110"/>
-      <c r="S46" s="110"/>
-      <c r="T46" s="110"/>
-      <c r="U46" s="110"/>
-      <c r="V46" s="110"/>
-      <c r="W46" s="110"/>
-      <c r="X46" s="110"/>
-      <c r="Y46" s="110"/>
-      <c r="Z46" s="110"/>
-      <c r="AA46" s="110"/>
-      <c r="AB46" s="110"/>
-      <c r="AC46" s="110"/>
-      <c r="AD46" s="110"/>
-      <c r="AE46" s="110"/>
-      <c r="AF46" s="110"/>
-      <c r="AG46" s="110"/>
-      <c r="AH46" s="110"/>
-      <c r="AI46" s="110"/>
-      <c r="AJ46" s="110"/>
-      <c r="AK46" s="110"/>
-      <c r="AL46" s="121"/>
+      <c r="L46" s="106"/>
+      <c r="M46" s="120"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="120"/>
+      <c r="P46" s="120"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="120"/>
+      <c r="S46" s="120"/>
+      <c r="T46" s="120"/>
+      <c r="U46" s="120"/>
+      <c r="V46" s="120"/>
+      <c r="W46" s="120"/>
+      <c r="X46" s="120"/>
+      <c r="Y46" s="120"/>
+      <c r="Z46" s="120"/>
+      <c r="AA46" s="120"/>
+      <c r="AB46" s="120"/>
+      <c r="AC46" s="120"/>
+      <c r="AD46" s="120"/>
+      <c r="AE46" s="120"/>
+      <c r="AF46" s="120"/>
+      <c r="AG46" s="120"/>
+      <c r="AH46" s="120"/>
+      <c r="AI46" s="120"/>
+      <c r="AJ46" s="120"/>
+      <c r="AK46" s="120"/>
+      <c r="AL46" s="106"/>
       <c r="AM46" s="8"/>
       <c r="AN46" s="8"/>
       <c r="AO46" s="8"/>
@@ -5694,13 +5694,13 @@
       <c r="BB46" s="8"/>
       <c r="BC46" s="8"/>
       <c r="BD46" s="8"/>
-      <c r="BE46" s="119"/>
-    </row>
-    <row r="47" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE46" s="104"/>
+    </row>
+    <row r="47" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="117"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="43"/>
       <c r="D47" s="71"/>
       <c r="E47" s="14"/>
@@ -5710,7 +5710,7 @@
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
       <c r="K47" s="65"/>
-      <c r="L47" s="121"/>
+      <c r="L47" s="106"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
@@ -5736,7 +5736,7 @@
       <c r="AI47" s="8"/>
       <c r="AJ47" s="8"/>
       <c r="AK47" s="8"/>
-      <c r="AL47" s="121"/>
+      <c r="AL47" s="106"/>
       <c r="AM47" s="8"/>
       <c r="AN47" s="8"/>
       <c r="AO47" s="8"/>
@@ -5755,13 +5755,13 @@
       <c r="BB47" s="8"/>
       <c r="BC47" s="8"/>
       <c r="BD47" s="8"/>
-      <c r="BE47" s="119"/>
-    </row>
-    <row r="48" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE47" s="104"/>
+    </row>
+    <row r="48" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="117"/>
+      <c r="B48" s="102"/>
       <c r="C48" s="43"/>
       <c r="D48" s="71"/>
       <c r="E48" s="14"/>
@@ -5771,7 +5771,7 @@
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
       <c r="K48" s="65"/>
-      <c r="L48" s="121"/>
+      <c r="L48" s="106"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
@@ -5797,7 +5797,7 @@
       <c r="AI48" s="8"/>
       <c r="AJ48" s="8"/>
       <c r="AK48" s="8"/>
-      <c r="AL48" s="121"/>
+      <c r="AL48" s="106"/>
       <c r="AM48" s="8"/>
       <c r="AN48" s="8"/>
       <c r="AO48" s="8"/>
@@ -5816,13 +5816,13 @@
       <c r="BB48" s="8"/>
       <c r="BC48" s="8"/>
       <c r="BD48" s="8"/>
-      <c r="BE48" s="119"/>
-    </row>
-    <row r="49" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE48" s="104"/>
+    </row>
+    <row r="49" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="117"/>
+      <c r="B49" s="102"/>
       <c r="C49" s="43"/>
       <c r="D49" s="71"/>
       <c r="E49" s="14"/>
@@ -5832,41 +5832,41 @@
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
       <c r="K49" s="65"/>
-      <c r="L49" s="121"/>
-      <c r="M49" s="111" t="s">
+      <c r="L49" s="106"/>
+      <c r="M49" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="N49" s="111"/>
-      <c r="O49" s="111"/>
-      <c r="P49" s="111"/>
-      <c r="Q49" s="111"/>
-      <c r="R49" s="111"/>
-      <c r="S49" s="111"/>
+      <c r="N49" s="112"/>
+      <c r="O49" s="112"/>
+      <c r="P49" s="112"/>
+      <c r="Q49" s="112"/>
+      <c r="R49" s="112"/>
+      <c r="S49" s="112"/>
       <c r="T49" s="10"/>
-      <c r="U49" s="111" t="s">
+      <c r="U49" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="V49" s="111"/>
-      <c r="W49" s="111"/>
-      <c r="X49" s="111"/>
-      <c r="Y49" s="111"/>
+      <c r="V49" s="112"/>
+      <c r="W49" s="112"/>
+      <c r="X49" s="112"/>
+      <c r="Y49" s="112"/>
       <c r="Z49" s="10"/>
-      <c r="AA49" s="111" t="s">
+      <c r="AA49" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="AB49" s="111"/>
-      <c r="AC49" s="111"/>
-      <c r="AD49" s="111"/>
-      <c r="AE49" s="111"/>
+      <c r="AB49" s="112"/>
+      <c r="AC49" s="112"/>
+      <c r="AD49" s="112"/>
+      <c r="AE49" s="112"/>
       <c r="AF49" s="8"/>
-      <c r="AG49" s="111" t="s">
+      <c r="AG49" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="AH49" s="111"/>
-      <c r="AI49" s="111"/>
-      <c r="AJ49" s="111"/>
-      <c r="AK49" s="111"/>
-      <c r="AL49" s="121"/>
+      <c r="AH49" s="112"/>
+      <c r="AI49" s="112"/>
+      <c r="AJ49" s="112"/>
+      <c r="AK49" s="112"/>
+      <c r="AL49" s="106"/>
       <c r="AM49" s="8"/>
       <c r="AN49" s="8"/>
       <c r="AO49" s="8"/>
@@ -5885,13 +5885,13 @@
       <c r="BB49" s="8"/>
       <c r="BC49" s="8"/>
       <c r="BD49" s="8"/>
-      <c r="BE49" s="119"/>
-    </row>
-    <row r="50" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE49" s="104"/>
+    </row>
+    <row r="50" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="117"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="13"/>
       <c r="D50" s="8"/>
       <c r="E50" s="15"/>
@@ -5901,33 +5901,33 @@
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
       <c r="K50" s="8"/>
-      <c r="L50" s="121"/>
-      <c r="M50" s="111"/>
-      <c r="N50" s="111"/>
-      <c r="O50" s="111"/>
-      <c r="P50" s="111"/>
-      <c r="Q50" s="111"/>
-      <c r="R50" s="111"/>
-      <c r="S50" s="111"/>
+      <c r="L50" s="106"/>
+      <c r="M50" s="112"/>
+      <c r="N50" s="112"/>
+      <c r="O50" s="112"/>
+      <c r="P50" s="112"/>
+      <c r="Q50" s="112"/>
+      <c r="R50" s="112"/>
+      <c r="S50" s="112"/>
       <c r="T50" s="10"/>
-      <c r="U50" s="111"/>
-      <c r="V50" s="111"/>
-      <c r="W50" s="111"/>
-      <c r="X50" s="111"/>
-      <c r="Y50" s="111"/>
+      <c r="U50" s="112"/>
+      <c r="V50" s="112"/>
+      <c r="W50" s="112"/>
+      <c r="X50" s="112"/>
+      <c r="Y50" s="112"/>
       <c r="Z50" s="10"/>
-      <c r="AA50" s="111"/>
-      <c r="AB50" s="111"/>
-      <c r="AC50" s="111"/>
-      <c r="AD50" s="111"/>
-      <c r="AE50" s="111"/>
+      <c r="AA50" s="112"/>
+      <c r="AB50" s="112"/>
+      <c r="AC50" s="112"/>
+      <c r="AD50" s="112"/>
+      <c r="AE50" s="112"/>
       <c r="AF50" s="8"/>
-      <c r="AG50" s="111"/>
-      <c r="AH50" s="111"/>
-      <c r="AI50" s="111"/>
-      <c r="AJ50" s="111"/>
-      <c r="AK50" s="111"/>
-      <c r="AL50" s="121"/>
+      <c r="AG50" s="112"/>
+      <c r="AH50" s="112"/>
+      <c r="AI50" s="112"/>
+      <c r="AJ50" s="112"/>
+      <c r="AK50" s="112"/>
+      <c r="AL50" s="106"/>
       <c r="AM50" s="8"/>
       <c r="AN50" s="8"/>
       <c r="AO50" s="8"/>
@@ -5946,13 +5946,13 @@
       <c r="BB50" s="8"/>
       <c r="BC50" s="8"/>
       <c r="BD50" s="8"/>
-      <c r="BE50" s="119"/>
-    </row>
-    <row r="51" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE50" s="104"/>
+    </row>
+    <row r="51" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B51" s="117"/>
+      <c r="B51" s="102"/>
       <c r="C51" s="13"/>
       <c r="D51" s="8"/>
       <c r="E51" s="15"/>
@@ -5962,33 +5962,33 @@
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="121"/>
-      <c r="M51" s="111"/>
-      <c r="N51" s="111"/>
-      <c r="O51" s="111"/>
-      <c r="P51" s="111"/>
-      <c r="Q51" s="111"/>
-      <c r="R51" s="111"/>
-      <c r="S51" s="111"/>
+      <c r="L51" s="106"/>
+      <c r="M51" s="112"/>
+      <c r="N51" s="112"/>
+      <c r="O51" s="112"/>
+      <c r="P51" s="112"/>
+      <c r="Q51" s="112"/>
+      <c r="R51" s="112"/>
+      <c r="S51" s="112"/>
       <c r="T51" s="10"/>
-      <c r="U51" s="111"/>
-      <c r="V51" s="111"/>
-      <c r="W51" s="111"/>
-      <c r="X51" s="111"/>
-      <c r="Y51" s="111"/>
+      <c r="U51" s="112"/>
+      <c r="V51" s="112"/>
+      <c r="W51" s="112"/>
+      <c r="X51" s="112"/>
+      <c r="Y51" s="112"/>
       <c r="Z51" s="10"/>
-      <c r="AA51" s="111"/>
-      <c r="AB51" s="111"/>
-      <c r="AC51" s="111"/>
-      <c r="AD51" s="111"/>
-      <c r="AE51" s="111"/>
+      <c r="AA51" s="112"/>
+      <c r="AB51" s="112"/>
+      <c r="AC51" s="112"/>
+      <c r="AD51" s="112"/>
+      <c r="AE51" s="112"/>
       <c r="AF51" s="8"/>
-      <c r="AG51" s="111"/>
-      <c r="AH51" s="111"/>
-      <c r="AI51" s="111"/>
-      <c r="AJ51" s="111"/>
-      <c r="AK51" s="111"/>
-      <c r="AL51" s="121"/>
+      <c r="AG51" s="112"/>
+      <c r="AH51" s="112"/>
+      <c r="AI51" s="112"/>
+      <c r="AJ51" s="112"/>
+      <c r="AK51" s="112"/>
+      <c r="AL51" s="106"/>
       <c r="AM51" s="8"/>
       <c r="AN51" s="8"/>
       <c r="AO51" s="8"/>
@@ -6007,13 +6007,13 @@
       <c r="BB51" s="8"/>
       <c r="BC51" s="8"/>
       <c r="BD51" s="8"/>
-      <c r="BE51" s="119"/>
-    </row>
-    <row r="52" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE51" s="104"/>
+    </row>
+    <row r="52" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="117"/>
+      <c r="B52" s="102"/>
       <c r="C52" s="13"/>
       <c r="D52" s="8"/>
       <c r="E52" s="15"/>
@@ -6023,33 +6023,33 @@
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" s="8"/>
-      <c r="L52" s="121"/>
-      <c r="M52" s="105"/>
-      <c r="N52" s="105"/>
-      <c r="O52" s="105"/>
-      <c r="P52" s="105"/>
-      <c r="Q52" s="105"/>
-      <c r="R52" s="105"/>
-      <c r="S52" s="105"/>
+      <c r="L52" s="106"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="114"/>
+      <c r="O52" s="114"/>
+      <c r="P52" s="114"/>
+      <c r="Q52" s="114"/>
+      <c r="R52" s="114"/>
+      <c r="S52" s="114"/>
       <c r="T52" s="8"/>
-      <c r="U52" s="105"/>
-      <c r="V52" s="105"/>
-      <c r="W52" s="105"/>
-      <c r="X52" s="105"/>
-      <c r="Y52" s="105"/>
+      <c r="U52" s="114"/>
+      <c r="V52" s="114"/>
+      <c r="W52" s="114"/>
+      <c r="X52" s="114"/>
+      <c r="Y52" s="114"/>
       <c r="Z52" s="8"/>
-      <c r="AA52" s="105"/>
-      <c r="AB52" s="105"/>
-      <c r="AC52" s="105"/>
-      <c r="AD52" s="105"/>
-      <c r="AE52" s="105"/>
+      <c r="AA52" s="114"/>
+      <c r="AB52" s="114"/>
+      <c r="AC52" s="114"/>
+      <c r="AD52" s="114"/>
+      <c r="AE52" s="114"/>
       <c r="AF52" s="8"/>
-      <c r="AG52" s="105"/>
-      <c r="AH52" s="105"/>
-      <c r="AI52" s="105"/>
-      <c r="AJ52" s="105"/>
-      <c r="AK52" s="105"/>
-      <c r="AL52" s="121"/>
+      <c r="AG52" s="114"/>
+      <c r="AH52" s="114"/>
+      <c r="AI52" s="114"/>
+      <c r="AJ52" s="114"/>
+      <c r="AK52" s="114"/>
+      <c r="AL52" s="106"/>
       <c r="AM52" s="8"/>
       <c r="AN52" s="8"/>
       <c r="AO52" s="8"/>
@@ -6068,13 +6068,13 @@
       <c r="BB52" s="8"/>
       <c r="BC52" s="8"/>
       <c r="BD52" s="8"/>
-      <c r="BE52" s="119"/>
-    </row>
-    <row r="53" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BE52" s="104"/>
+    </row>
+    <row r="53" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="117"/>
+      <c r="B53" s="102"/>
       <c r="C53" s="13"/>
       <c r="D53" s="8"/>
       <c r="E53" s="15"/>
@@ -6084,8 +6084,8 @@
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
       <c r="K53" s="8"/>
-      <c r="L53" s="121"/>
-      <c r="M53" s="109"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="117"/>
       <c r="P53" s="24">
         <v>4</v>
       </c>
@@ -6093,38 +6093,38 @@
         <v>32</v>
       </c>
       <c r="R53" s="73"/>
-      <c r="S53" s="109"/>
+      <c r="S53" s="117"/>
       <c r="T53" s="8"/>
-      <c r="U53" s="109"/>
+      <c r="U53" s="117"/>
       <c r="V53" s="26">
         <v>4</v>
       </c>
-      <c r="W53" s="108" t="s">
+      <c r="W53" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="X53" s="108"/>
-      <c r="Y53" s="109"/>
+      <c r="X53" s="116"/>
+      <c r="Y53" s="117"/>
       <c r="Z53" s="74"/>
       <c r="AA53" s="75"/>
       <c r="AB53" s="26">
         <v>4</v>
       </c>
-      <c r="AC53" s="108" t="s">
+      <c r="AC53" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="AD53" s="108"/>
+      <c r="AD53" s="116"/>
       <c r="AE53" s="75"/>
       <c r="AF53" s="8"/>
       <c r="AG53" s="75"/>
       <c r="AH53" s="26">
         <v>6</v>
       </c>
-      <c r="AI53" s="108" t="s">
+      <c r="AI53" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="AJ53" s="108"/>
+      <c r="AJ53" s="116"/>
       <c r="AK53" s="76"/>
-      <c r="AL53" s="121"/>
+      <c r="AL53" s="106"/>
       <c r="AM53" s="8"/>
       <c r="AN53" s="8"/>
       <c r="AO53" s="8"/>
@@ -6143,13 +6143,13 @@
       <c r="BB53" s="8"/>
       <c r="BC53" s="8"/>
       <c r="BD53" s="8"/>
-      <c r="BE53" s="119"/>
-    </row>
-    <row r="54" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE53" s="104"/>
+    </row>
+    <row r="54" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="117"/>
+      <c r="B54" s="102"/>
       <c r="C54" s="13"/>
       <c r="D54" s="8"/>
       <c r="E54" s="15"/>
@@ -6159,8 +6159,8 @@
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
       <c r="K54" s="8"/>
-      <c r="L54" s="121"/>
-      <c r="M54" s="109"/>
+      <c r="L54" s="106"/>
+      <c r="M54" s="117"/>
       <c r="P54" s="30" t="s">
         <v>36</v>
       </c>
@@ -6170,9 +6170,9 @@
       <c r="R54" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="S54" s="109"/>
+      <c r="S54" s="117"/>
       <c r="T54" s="8"/>
-      <c r="U54" s="109"/>
+      <c r="U54" s="117"/>
       <c r="V54" s="30" t="s">
         <v>36</v>
       </c>
@@ -6182,7 +6182,7 @@
       <c r="X54" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="Y54" s="109"/>
+      <c r="Y54" s="117"/>
       <c r="Z54" s="14"/>
       <c r="AA54" s="77"/>
       <c r="AB54" s="30" t="s">
@@ -6207,7 +6207,7 @@
         <v>38</v>
       </c>
       <c r="AK54" s="78"/>
-      <c r="AL54" s="121"/>
+      <c r="AL54" s="106"/>
       <c r="AM54" s="8"/>
       <c r="AN54" s="8"/>
       <c r="AO54" s="8"/>
@@ -6226,13 +6226,13 @@
       <c r="BB54" s="8"/>
       <c r="BC54" s="8"/>
       <c r="BD54" s="8"/>
-      <c r="BE54" s="119"/>
-    </row>
-    <row r="55" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE54" s="104"/>
+    </row>
+    <row r="55" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="117"/>
+      <c r="B55" s="102"/>
       <c r="C55" s="13"/>
       <c r="D55" s="8"/>
       <c r="E55" s="15"/>
@@ -6242,9 +6242,9 @@
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
       <c r="K55" s="8"/>
-      <c r="L55" s="121"/>
-      <c r="M55" s="109"/>
-      <c r="P55" s="104" t="s">
+      <c r="L55" s="106"/>
+      <c r="M55" s="117"/>
+      <c r="P55" s="118" t="s">
         <v>133</v>
       </c>
       <c r="Q55" s="37" t="str">
@@ -6254,10 +6254,10 @@
       <c r="R55" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="109"/>
+      <c r="S55" s="117"/>
       <c r="T55" s="8"/>
-      <c r="U55" s="109"/>
-      <c r="V55" s="104" t="s">
+      <c r="U55" s="117"/>
+      <c r="V55" s="118" t="s">
         <v>134</v>
       </c>
       <c r="W55" s="37" t="str">
@@ -6267,10 +6267,10 @@
       <c r="X55" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="Y55" s="109"/>
+      <c r="Y55" s="117"/>
       <c r="Z55" s="62"/>
       <c r="AA55" s="77"/>
-      <c r="AB55" s="104" t="s">
+      <c r="AB55" s="118" t="s">
         <v>135</v>
       </c>
       <c r="AC55" s="37" t="str">
@@ -6283,7 +6283,7 @@
       <c r="AE55" s="77"/>
       <c r="AF55" s="8"/>
       <c r="AG55" s="77"/>
-      <c r="AH55" s="103" t="s">
+      <c r="AH55" s="121" t="s">
         <v>136</v>
       </c>
       <c r="AI55" s="37" t="str">
@@ -6294,7 +6294,7 @@
         <v>51</v>
       </c>
       <c r="AK55" s="78"/>
-      <c r="AL55" s="121"/>
+      <c r="AL55" s="106"/>
       <c r="AM55" s="8"/>
       <c r="AN55" s="8"/>
       <c r="AO55" s="8"/>
@@ -6313,13 +6313,13 @@
       <c r="BB55" s="8"/>
       <c r="BC55" s="8"/>
       <c r="BD55" s="8"/>
-      <c r="BE55" s="119"/>
-    </row>
-    <row r="56" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE55" s="104"/>
+    </row>
+    <row r="56" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B56" s="117"/>
+      <c r="B56" s="102"/>
       <c r="C56" s="13"/>
       <c r="D56" s="8"/>
       <c r="E56" s="15"/>
@@ -6329,9 +6329,9 @@
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
       <c r="K56" s="8"/>
-      <c r="L56" s="121"/>
-      <c r="M56" s="109"/>
-      <c r="P56" s="104"/>
+      <c r="L56" s="106"/>
+      <c r="M56" s="117"/>
+      <c r="P56" s="118"/>
       <c r="Q56" s="47" t="str">
         <f>IF(ISBLANK($R$31),"D3",$R$31)</f>
         <v>Normanfaitdesvidéos</v>
@@ -6339,10 +6339,10 @@
       <c r="R56" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="S56" s="109"/>
+      <c r="S56" s="117"/>
       <c r="T56" s="8"/>
-      <c r="U56" s="109"/>
-      <c r="V56" s="104"/>
+      <c r="U56" s="117"/>
+      <c r="V56" s="118"/>
       <c r="W56" s="47" t="str">
         <f>IF(ISBLANK($R$60),"M2",$R$60)</f>
         <v>Asbow</v>
@@ -6350,10 +6350,10 @@
       <c r="X56" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="Y56" s="109"/>
+      <c r="Y56" s="117"/>
       <c r="Z56" s="62"/>
       <c r="AA56" s="77"/>
-      <c r="AB56" s="104"/>
+      <c r="AB56" s="118"/>
       <c r="AC56" s="50" t="str">
         <f>IF(ISBLANK($X$59),"P1",$X$59)</f>
         <v>Kabag</v>
@@ -6364,7 +6364,7 @@
       <c r="AE56" s="80"/>
       <c r="AF56" s="8"/>
       <c r="AG56" s="77"/>
-      <c r="AH56" s="103"/>
+      <c r="AH56" s="121"/>
       <c r="AI56" s="47" t="str">
         <f>IF(ISBLANK($AD$59),"S1",$AD$59)</f>
         <v>NELO</v>
@@ -6373,7 +6373,7 @@
         <v>34</v>
       </c>
       <c r="AK56" s="78"/>
-      <c r="AL56" s="121"/>
+      <c r="AL56" s="106"/>
       <c r="AM56" s="8"/>
       <c r="AN56" s="8"/>
       <c r="AO56" s="8"/>
@@ -6392,13 +6392,13 @@
       <c r="BB56" s="8"/>
       <c r="BC56" s="8"/>
       <c r="BD56" s="8"/>
-      <c r="BE56" s="119"/>
-    </row>
-    <row r="57" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE56" s="104"/>
+    </row>
+    <row r="57" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="117"/>
+      <c r="B57" s="102"/>
       <c r="C57" s="13"/>
       <c r="D57" s="8"/>
       <c r="E57" s="15"/>
@@ -6408,9 +6408,9 @@
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
       <c r="K57" s="8"/>
-      <c r="L57" s="121"/>
-      <c r="M57" s="109"/>
-      <c r="P57" s="104"/>
+      <c r="L57" s="106"/>
+      <c r="M57" s="117"/>
+      <c r="P57" s="118"/>
       <c r="Q57" s="47" t="str">
         <f>IF(ISBLANK($R$24),"B4",$R$24)</f>
         <v>CraignezMoi22</v>
@@ -6418,10 +6418,10 @@
       <c r="R57" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="S57" s="109"/>
+      <c r="S57" s="117"/>
       <c r="T57" s="8"/>
-      <c r="U57" s="109"/>
-      <c r="V57" s="104"/>
+      <c r="U57" s="117"/>
+      <c r="V57" s="118"/>
       <c r="W57" s="47" t="str">
         <f>IF(ISBLANK($X$19),"G3",$X$19)</f>
         <v>SewLink</v>
@@ -6429,10 +6429,10 @@
       <c r="X57" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="Y57" s="109"/>
+      <c r="Y57" s="117"/>
       <c r="Z57" s="62"/>
       <c r="AA57" s="77"/>
-      <c r="AB57" s="104"/>
+      <c r="AB57" s="118"/>
       <c r="AC57" s="47" t="str">
         <f>IF(ISBLANK($X$64),"Q2",$X$64)</f>
         <v>Charasime</v>
@@ -6443,7 +6443,7 @@
       <c r="AE57" s="77"/>
       <c r="AF57" s="8"/>
       <c r="AG57" s="77"/>
-      <c r="AH57" s="103"/>
+      <c r="AH57" s="121"/>
       <c r="AI57" s="47" t="str">
         <f>IF(ISBLANK($AJ$19),"WF3",$AJ$19)</f>
         <v>Staaany</v>
@@ -6452,7 +6452,7 @@
         <v>49</v>
       </c>
       <c r="AK57" s="78"/>
-      <c r="AL57" s="121"/>
+      <c r="AL57" s="106"/>
       <c r="AM57" s="8"/>
       <c r="AN57" s="8"/>
       <c r="AO57" s="8"/>
@@ -6471,13 +6471,13 @@
       <c r="BB57" s="8"/>
       <c r="BC57" s="8"/>
       <c r="BD57" s="8"/>
-      <c r="BE57" s="119"/>
-    </row>
-    <row r="58" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE57" s="104"/>
+    </row>
+    <row r="58" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="117"/>
+      <c r="B58" s="102"/>
       <c r="C58" s="13"/>
       <c r="D58" s="8"/>
       <c r="E58" s="15"/>
@@ -6487,9 +6487,9 @@
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
       <c r="K58" s="8"/>
-      <c r="L58" s="121"/>
-      <c r="M58" s="109"/>
-      <c r="P58" s="104"/>
+      <c r="L58" s="106"/>
+      <c r="M58" s="117"/>
+      <c r="P58" s="118"/>
       <c r="Q58" s="47" t="str">
         <f>IF(ISBLANK($R$36),"E4",$R$36)</f>
         <v>-</v>
@@ -6497,10 +6497,10 @@
       <c r="R58" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="S58" s="109"/>
+      <c r="S58" s="117"/>
       <c r="T58" s="8"/>
-      <c r="U58" s="109"/>
-      <c r="V58" s="104"/>
+      <c r="U58" s="117"/>
+      <c r="V58" s="118"/>
       <c r="W58" s="47" t="str">
         <f>IF(ISBLANK($X$24),"H4",$X$24)</f>
         <v>Zniuum</v>
@@ -6508,10 +6508,10 @@
       <c r="X58" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="Y58" s="109"/>
+      <c r="Y58" s="117"/>
       <c r="Z58" s="62"/>
       <c r="AA58" s="77"/>
-      <c r="AB58" s="104"/>
+      <c r="AB58" s="118"/>
       <c r="AC58" s="47" t="str">
         <f>IF(ISBLANK($AD$19),"J3",$AD$19)</f>
         <v>Aibelle</v>
@@ -6522,7 +6522,7 @@
       <c r="AE58" s="77"/>
       <c r="AF58" s="81"/>
       <c r="AG58" s="77"/>
-      <c r="AH58" s="103"/>
+      <c r="AH58" s="121"/>
       <c r="AI58" s="47" t="str">
         <f>IF(ISBLANK($AJ$20),"WF4",$AJ$20)</f>
         <v>Batefimbi</v>
@@ -6531,7 +6531,7 @@
         <v>56</v>
       </c>
       <c r="AK58" s="78"/>
-      <c r="AL58" s="121"/>
+      <c r="AL58" s="106"/>
       <c r="AM58" s="8"/>
       <c r="AN58" s="8"/>
       <c r="AO58" s="8"/>
@@ -6550,13 +6550,13 @@
       <c r="BB58" s="8"/>
       <c r="BC58" s="8"/>
       <c r="BD58" s="8"/>
-      <c r="BE58" s="119"/>
-    </row>
-    <row r="59" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE58" s="104"/>
+    </row>
+    <row r="59" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B59" s="117"/>
+      <c r="B59" s="102"/>
       <c r="C59" s="13"/>
       <c r="D59" s="8"/>
       <c r="E59" s="15"/>
@@ -6566,9 +6566,9 @@
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
       <c r="K59" s="8"/>
-      <c r="L59" s="121"/>
-      <c r="M59" s="109"/>
-      <c r="P59" s="104" t="s">
+      <c r="L59" s="106"/>
+      <c r="M59" s="117"/>
+      <c r="P59" s="118" t="s">
         <v>141</v>
       </c>
       <c r="Q59" s="37" t="str">
@@ -6578,10 +6578,10 @@
       <c r="R59" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="S59" s="109"/>
+      <c r="S59" s="117"/>
       <c r="T59" s="8"/>
-      <c r="U59" s="109"/>
-      <c r="V59" s="104" t="s">
+      <c r="U59" s="117"/>
+      <c r="V59" s="118" t="s">
         <v>142</v>
       </c>
       <c r="W59" s="37" t="str">
@@ -6591,10 +6591,10 @@
       <c r="X59" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="Y59" s="109"/>
+      <c r="Y59" s="117"/>
       <c r="Z59" s="62"/>
       <c r="AA59" s="77"/>
-      <c r="AB59" s="104" t="s">
+      <c r="AB59" s="118" t="s">
         <v>143</v>
       </c>
       <c r="AC59" s="37" t="str">
@@ -6606,12 +6606,12 @@
       </c>
       <c r="AE59" s="77"/>
       <c r="AF59" s="81"/>
-      <c r="AG59" s="105"/>
-      <c r="AH59" s="105"/>
-      <c r="AI59" s="105"/>
-      <c r="AJ59" s="105"/>
-      <c r="AK59" s="105"/>
-      <c r="AL59" s="121"/>
+      <c r="AG59" s="114"/>
+      <c r="AH59" s="114"/>
+      <c r="AI59" s="114"/>
+      <c r="AJ59" s="114"/>
+      <c r="AK59" s="114"/>
+      <c r="AL59" s="106"/>
       <c r="AM59" s="8"/>
       <c r="AN59" s="8"/>
       <c r="AO59" s="8"/>
@@ -6630,13 +6630,13 @@
       <c r="BB59" s="8"/>
       <c r="BC59" s="8"/>
       <c r="BD59" s="8"/>
-      <c r="BE59" s="119"/>
-    </row>
-    <row r="60" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE59" s="104"/>
+    </row>
+    <row r="60" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B60" s="117"/>
+      <c r="B60" s="102"/>
       <c r="C60" s="13"/>
       <c r="D60" s="8"/>
       <c r="E60" s="15"/>
@@ -6646,9 +6646,9 @@
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
       <c r="K60" s="8"/>
-      <c r="L60" s="121"/>
-      <c r="M60" s="109"/>
-      <c r="P60" s="104"/>
+      <c r="L60" s="106"/>
+      <c r="M60" s="117"/>
+      <c r="P60" s="118"/>
       <c r="Q60" s="47" t="str">
         <f>IF(ISBLANK($R$35),"E3",$R$35)</f>
         <v>Asbow</v>
@@ -6656,10 +6656,10 @@
       <c r="R60" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="S60" s="109"/>
+      <c r="S60" s="117"/>
       <c r="T60" s="8"/>
-      <c r="U60" s="109"/>
-      <c r="V60" s="104"/>
+      <c r="U60" s="117"/>
+      <c r="V60" s="118"/>
       <c r="W60" s="47" t="str">
         <f>IF(ISBLANK($R$64),"N2",$R$64)</f>
         <v>Leas</v>
@@ -6667,10 +6667,10 @@
       <c r="X60" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="Y60" s="109"/>
+      <c r="Y60" s="117"/>
       <c r="Z60" s="62"/>
       <c r="AA60" s="77"/>
-      <c r="AB60" s="104"/>
+      <c r="AB60" s="118"/>
       <c r="AC60" s="50" t="str">
         <f>IF(ISBLANK($X$56),"O2",$X$56)</f>
         <v>NELO</v>
@@ -6685,7 +6685,7 @@
       <c r="AI60" s="62"/>
       <c r="AJ60" s="63"/>
       <c r="AK60" s="8"/>
-      <c r="AL60" s="121"/>
+      <c r="AL60" s="106"/>
       <c r="AM60" s="8"/>
       <c r="AN60" s="8"/>
       <c r="AO60" s="8"/>
@@ -6704,13 +6704,13 @@
       <c r="BB60" s="8"/>
       <c r="BC60" s="8"/>
       <c r="BD60" s="8"/>
-      <c r="BE60" s="119"/>
-    </row>
-    <row r="61" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE60" s="104"/>
+    </row>
+    <row r="61" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B61" s="117"/>
+      <c r="B61" s="102"/>
       <c r="C61" s="13"/>
       <c r="D61" s="8"/>
       <c r="E61" s="15"/>
@@ -6720,9 +6720,9 @@
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
       <c r="K61" s="8"/>
-      <c r="L61" s="121"/>
-      <c r="M61" s="109"/>
-      <c r="P61" s="104"/>
+      <c r="L61" s="106"/>
+      <c r="M61" s="117"/>
+      <c r="P61" s="118"/>
       <c r="Q61" s="47" t="str">
         <f>IF(ISBLANK($R$28),"C4",$R$28)</f>
         <v>Supnyus</v>
@@ -6730,10 +6730,10 @@
       <c r="R61" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="S61" s="109"/>
+      <c r="S61" s="117"/>
       <c r="T61" s="8"/>
-      <c r="U61" s="109"/>
-      <c r="V61" s="104"/>
+      <c r="U61" s="117"/>
+      <c r="V61" s="118"/>
       <c r="W61" s="47" t="str">
         <f>IF(ISBLANK($X$23),"H3",$X$23)</f>
         <v>Kabag</v>
@@ -6741,10 +6741,10 @@
       <c r="X61" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="Y61" s="109"/>
+      <c r="Y61" s="117"/>
       <c r="Z61" s="62"/>
       <c r="AA61" s="77"/>
-      <c r="AB61" s="104"/>
+      <c r="AB61" s="118"/>
       <c r="AC61" s="47" t="str">
         <f>IF(ISBLANK($X$60),"P2",$X$60)</f>
         <v>Unmoutonrandom</v>
@@ -6759,7 +6759,7 @@
       <c r="AI61" s="82"/>
       <c r="AJ61" s="82"/>
       <c r="AK61" s="8"/>
-      <c r="AL61" s="121"/>
+      <c r="AL61" s="106"/>
       <c r="AM61" s="8"/>
       <c r="AN61" s="8"/>
       <c r="AO61" s="8"/>
@@ -6778,13 +6778,13 @@
       <c r="BB61" s="8"/>
       <c r="BC61" s="8"/>
       <c r="BD61" s="8"/>
-      <c r="BE61" s="119"/>
-    </row>
-    <row r="62" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE61" s="104"/>
+    </row>
+    <row r="62" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="117"/>
+      <c r="B62" s="102"/>
       <c r="C62" s="13"/>
       <c r="D62" s="8"/>
       <c r="E62" s="15"/>
@@ -6794,9 +6794,9 @@
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
       <c r="K62" s="8"/>
-      <c r="L62" s="121"/>
-      <c r="M62" s="109"/>
-      <c r="P62" s="104"/>
+      <c r="L62" s="106"/>
+      <c r="M62" s="117"/>
+      <c r="P62" s="118"/>
       <c r="Q62" s="47" t="str">
         <f>IF(ISBLANK($R$40),"F4",$R$40)</f>
         <v>-</v>
@@ -6804,10 +6804,10 @@
       <c r="R62" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="S62" s="109"/>
+      <c r="S62" s="117"/>
       <c r="T62" s="8"/>
-      <c r="U62" s="109"/>
-      <c r="V62" s="104"/>
+      <c r="U62" s="117"/>
+      <c r="V62" s="118"/>
       <c r="W62" s="56" t="str">
         <f>IF(ISBLANK($X$28),"I4",$X$28)</f>
         <v>Groluche</v>
@@ -6815,10 +6815,10 @@
       <c r="X62" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="Y62" s="109"/>
+      <c r="Y62" s="117"/>
       <c r="Z62" s="62"/>
       <c r="AA62" s="77"/>
-      <c r="AB62" s="104"/>
+      <c r="AB62" s="118"/>
       <c r="AC62" s="47" t="str">
         <f>IF(ISBLANK($AD$22),"K3",$AD$22)</f>
         <v>AksL</v>
@@ -6833,7 +6833,7 @@
       <c r="AI62" s="62"/>
       <c r="AJ62" s="63"/>
       <c r="AK62" s="8"/>
-      <c r="AL62" s="121"/>
+      <c r="AL62" s="106"/>
       <c r="AM62" s="8"/>
       <c r="AN62" s="8"/>
       <c r="AO62" s="8"/>
@@ -6852,13 +6852,13 @@
       <c r="BB62" s="8"/>
       <c r="BC62" s="8"/>
       <c r="BD62" s="8"/>
-      <c r="BE62" s="119"/>
-    </row>
-    <row r="63" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE62" s="104"/>
+    </row>
+    <row r="63" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B63" s="117"/>
+      <c r="B63" s="102"/>
       <c r="C63" s="13"/>
       <c r="D63" s="8"/>
       <c r="E63" s="15"/>
@@ -6868,9 +6868,9 @@
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
       <c r="K63" s="8"/>
-      <c r="L63" s="121"/>
-      <c r="M63" s="109"/>
-      <c r="P63" s="103" t="s">
+      <c r="L63" s="106"/>
+      <c r="M63" s="117"/>
+      <c r="P63" s="121" t="s">
         <v>148</v>
       </c>
       <c r="Q63" s="37" t="str">
@@ -6880,10 +6880,10 @@
       <c r="R63" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="S63" s="109"/>
+      <c r="S63" s="117"/>
       <c r="T63" s="8"/>
-      <c r="U63" s="109"/>
-      <c r="V63" s="104" t="s">
+      <c r="U63" s="117"/>
+      <c r="V63" s="118" t="s">
         <v>149</v>
       </c>
       <c r="W63" s="37" t="str">
@@ -6893,20 +6893,20 @@
       <c r="X63" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="Y63" s="109"/>
+      <c r="Y63" s="117"/>
       <c r="Z63" s="8"/>
-      <c r="AA63" s="105"/>
-      <c r="AB63" s="105"/>
-      <c r="AC63" s="105"/>
-      <c r="AD63" s="105"/>
-      <c r="AE63" s="105"/>
+      <c r="AA63" s="114"/>
+      <c r="AB63" s="114"/>
+      <c r="AC63" s="114"/>
+      <c r="AD63" s="114"/>
+      <c r="AE63" s="114"/>
       <c r="AF63" s="81"/>
       <c r="AG63" s="8"/>
       <c r="AH63" s="61"/>
       <c r="AI63" s="62"/>
       <c r="AJ63" s="63"/>
       <c r="AK63" s="8"/>
-      <c r="AL63" s="121"/>
+      <c r="AL63" s="106"/>
       <c r="AM63" s="8"/>
       <c r="AN63" s="8"/>
       <c r="AO63" s="8"/>
@@ -6925,13 +6925,13 @@
       <c r="BB63" s="8"/>
       <c r="BC63" s="8"/>
       <c r="BD63" s="8"/>
-      <c r="BE63" s="119"/>
-    </row>
-    <row r="64" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE63" s="104"/>
+    </row>
+    <row r="64" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B64" s="117"/>
+      <c r="B64" s="102"/>
       <c r="C64" s="13"/>
       <c r="D64" s="8"/>
       <c r="E64" s="15"/>
@@ -6941,9 +6941,9 @@
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
       <c r="K64" s="8"/>
-      <c r="L64" s="121"/>
-      <c r="M64" s="109"/>
-      <c r="P64" s="103"/>
+      <c r="L64" s="106"/>
+      <c r="M64" s="117"/>
+      <c r="P64" s="121"/>
       <c r="Q64" s="47" t="str">
         <f>IF(ISBLANK($R$39),"F3",$R$39)</f>
         <v>DARKLORD</v>
@@ -6951,10 +6951,10 @@
       <c r="R64" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="S64" s="109"/>
+      <c r="S64" s="117"/>
       <c r="T64" s="8"/>
-      <c r="U64" s="109"/>
-      <c r="V64" s="104"/>
+      <c r="U64" s="117"/>
+      <c r="V64" s="118"/>
       <c r="W64" s="47" t="str">
         <f>IF(ISBLANK($R$56),"L2",$R$56)</f>
         <v>Normanfaitdesvidéos</v>
@@ -6962,7 +6962,7 @@
       <c r="X64" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="Y64" s="109"/>
+      <c r="Y64" s="117"/>
       <c r="Z64" s="8"/>
       <c r="AA64" s="8"/>
       <c r="AB64" s="61"/>
@@ -6975,7 +6975,7 @@
       <c r="AI64" s="62"/>
       <c r="AJ64" s="63"/>
       <c r="AK64" s="8"/>
-      <c r="AL64" s="121"/>
+      <c r="AL64" s="106"/>
       <c r="AM64" s="8"/>
       <c r="AN64" s="8"/>
       <c r="AO64" s="8"/>
@@ -6994,13 +6994,13 @@
       <c r="BB64" s="8"/>
       <c r="BC64" s="8"/>
       <c r="BD64" s="8"/>
-      <c r="BE64" s="119"/>
-    </row>
-    <row r="65" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE64" s="104"/>
+    </row>
+    <row r="65" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="117"/>
+      <c r="B65" s="102"/>
       <c r="C65" s="13"/>
       <c r="D65" s="8"/>
       <c r="E65" s="15"/>
@@ -7010,9 +7010,9 @@
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
       <c r="K65" s="8"/>
-      <c r="L65" s="121"/>
-      <c r="M65" s="109"/>
-      <c r="P65" s="103"/>
+      <c r="L65" s="106"/>
+      <c r="M65" s="117"/>
+      <c r="P65" s="121"/>
       <c r="Q65" s="47" t="str">
         <f>IF(ISBLANK($R$20),"A4",$R$20)</f>
         <v>Gaster</v>
@@ -7020,10 +7020,10 @@
       <c r="R65" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="S65" s="109"/>
+      <c r="S65" s="117"/>
       <c r="T65" s="8"/>
-      <c r="U65" s="109"/>
-      <c r="V65" s="104"/>
+      <c r="U65" s="117"/>
+      <c r="V65" s="118"/>
       <c r="W65" s="47" t="str">
         <f>IF(ISBLANK($X$27),"I3",$X$27)</f>
         <v>Charasime</v>
@@ -7031,7 +7031,7 @@
       <c r="X65" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="Y65" s="109"/>
+      <c r="Y65" s="117"/>
       <c r="Z65" s="8"/>
       <c r="AA65" s="8"/>
       <c r="AB65" s="61"/>
@@ -7044,7 +7044,7 @@
       <c r="AI65" s="62"/>
       <c r="AJ65" s="63"/>
       <c r="AK65" s="8"/>
-      <c r="AL65" s="121"/>
+      <c r="AL65" s="106"/>
       <c r="AM65" s="8"/>
       <c r="AN65" s="8"/>
       <c r="AO65" s="8"/>
@@ -7063,13 +7063,13 @@
       <c r="BB65" s="8"/>
       <c r="BC65" s="8"/>
       <c r="BD65" s="8"/>
-      <c r="BE65" s="119"/>
-    </row>
-    <row r="66" spans="1:57" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE65" s="104"/>
+    </row>
+    <row r="66" spans="1:57" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B66" s="117"/>
+      <c r="B66" s="102"/>
       <c r="C66" s="13"/>
       <c r="D66" s="8"/>
       <c r="E66" s="15"/>
@@ -7079,9 +7079,9 @@
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
       <c r="K66" s="8"/>
-      <c r="L66" s="121"/>
-      <c r="M66" s="109"/>
-      <c r="P66" s="103"/>
+      <c r="L66" s="106"/>
+      <c r="M66" s="117"/>
+      <c r="P66" s="121"/>
       <c r="Q66" s="47" t="str">
         <f>IF(ISBLANK($R$32),"D4",$R$32)</f>
         <v>Oliviaaaa</v>
@@ -7089,10 +7089,10 @@
       <c r="R66" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="S66" s="109"/>
+      <c r="S66" s="117"/>
       <c r="T66" s="8"/>
-      <c r="U66" s="109"/>
-      <c r="V66" s="104"/>
+      <c r="U66" s="117"/>
+      <c r="V66" s="118"/>
       <c r="W66" s="56" t="str">
         <f>IF(ISBLANK($X$20),"G4",$X$20)</f>
         <v>Voltar</v>
@@ -7100,7 +7100,7 @@
       <c r="X66" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="Y66" s="109"/>
+      <c r="Y66" s="117"/>
       <c r="Z66" s="8"/>
       <c r="AA66" s="8"/>
       <c r="AB66" s="61"/>
@@ -7113,7 +7113,7 @@
       <c r="AI66" s="62"/>
       <c r="AJ66" s="63"/>
       <c r="AK66" s="8"/>
-      <c r="AL66" s="121"/>
+      <c r="AL66" s="106"/>
       <c r="AM66" s="8"/>
       <c r="AN66" s="8"/>
       <c r="AO66" s="8"/>
@@ -7132,13 +7132,13 @@
       <c r="BB66" s="8"/>
       <c r="BC66" s="8"/>
       <c r="BD66" s="8"/>
-      <c r="BE66" s="119"/>
-    </row>
-    <row r="67" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE66" s="104"/>
+    </row>
+    <row r="67" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B67" s="117"/>
+      <c r="B67" s="102"/>
       <c r="C67" s="13"/>
       <c r="D67" s="8"/>
       <c r="E67" s="15"/>
@@ -7148,20 +7148,20 @@
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
       <c r="K67" s="8"/>
-      <c r="L67" s="121"/>
-      <c r="M67" s="105"/>
-      <c r="N67" s="105"/>
-      <c r="O67" s="105"/>
-      <c r="P67" s="105"/>
-      <c r="Q67" s="105"/>
-      <c r="R67" s="105"/>
-      <c r="S67" s="105"/>
+      <c r="L67" s="106"/>
+      <c r="M67" s="114"/>
+      <c r="N67" s="114"/>
+      <c r="O67" s="114"/>
+      <c r="P67" s="114"/>
+      <c r="Q67" s="114"/>
+      <c r="R67" s="114"/>
+      <c r="S67" s="114"/>
       <c r="T67" s="8"/>
-      <c r="U67" s="105"/>
-      <c r="V67" s="105"/>
-      <c r="W67" s="105"/>
-      <c r="X67" s="105"/>
-      <c r="Y67" s="105"/>
+      <c r="U67" s="114"/>
+      <c r="V67" s="114"/>
+      <c r="W67" s="114"/>
+      <c r="X67" s="114"/>
+      <c r="Y67" s="114"/>
       <c r="Z67" s="8"/>
       <c r="AA67" s="8"/>
       <c r="AB67" s="61"/>
@@ -7174,7 +7174,7 @@
       <c r="AI67" s="62"/>
       <c r="AJ67" s="63"/>
       <c r="AK67" s="8"/>
-      <c r="AL67" s="121"/>
+      <c r="AL67" s="106"/>
       <c r="AM67" s="8"/>
       <c r="AN67" s="8"/>
       <c r="AO67" s="8"/>
@@ -7193,13 +7193,13 @@
       <c r="BB67" s="8"/>
       <c r="BC67" s="8"/>
       <c r="BD67" s="8"/>
-      <c r="BE67" s="119"/>
-    </row>
-    <row r="68" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE67" s="104"/>
+    </row>
+    <row r="68" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B68" s="117"/>
+      <c r="B68" s="102"/>
       <c r="C68" s="13"/>
       <c r="D68" s="8"/>
       <c r="E68" s="15"/>
@@ -7209,7 +7209,7 @@
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
       <c r="K68" s="8"/>
-      <c r="L68" s="121"/>
+      <c r="L68" s="106"/>
       <c r="M68" s="81"/>
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
@@ -7235,7 +7235,7 @@
       <c r="AI68" s="62"/>
       <c r="AJ68" s="63"/>
       <c r="AK68" s="8"/>
-      <c r="AL68" s="121"/>
+      <c r="AL68" s="106"/>
       <c r="AM68" s="8"/>
       <c r="AN68" s="8"/>
       <c r="AO68" s="8"/>
@@ -7254,13 +7254,13 @@
       <c r="BB68" s="8"/>
       <c r="BC68" s="8"/>
       <c r="BD68" s="8"/>
-      <c r="BE68" s="119"/>
-    </row>
-    <row r="69" spans="1:57" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE68" s="104"/>
+    </row>
+    <row r="69" spans="1:57" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="117"/>
+      <c r="B69" s="102"/>
       <c r="C69" s="84"/>
       <c r="D69" s="85"/>
       <c r="E69" s="86"/>
@@ -7270,20 +7270,20 @@
       <c r="I69" s="87"/>
       <c r="J69" s="87"/>
       <c r="K69" s="85"/>
-      <c r="L69" s="121"/>
-      <c r="M69" s="106"/>
-      <c r="N69" s="106"/>
-      <c r="O69" s="106"/>
-      <c r="P69" s="106"/>
-      <c r="Q69" s="106"/>
-      <c r="R69" s="106"/>
-      <c r="S69" s="106"/>
+      <c r="L69" s="106"/>
+      <c r="M69" s="123"/>
+      <c r="N69" s="123"/>
+      <c r="O69" s="123"/>
+      <c r="P69" s="123"/>
+      <c r="Q69" s="123"/>
+      <c r="R69" s="123"/>
+      <c r="S69" s="123"/>
       <c r="T69" s="85"/>
-      <c r="U69" s="107"/>
-      <c r="V69" s="107"/>
-      <c r="W69" s="107"/>
-      <c r="X69" s="107"/>
-      <c r="Y69" s="107"/>
+      <c r="U69" s="124"/>
+      <c r="V69" s="124"/>
+      <c r="W69" s="124"/>
+      <c r="X69" s="124"/>
+      <c r="Y69" s="124"/>
       <c r="Z69" s="85"/>
       <c r="AA69" s="85"/>
       <c r="AB69" s="85"/>
@@ -7296,7 +7296,7 @@
       <c r="AI69" s="85"/>
       <c r="AJ69" s="85"/>
       <c r="AK69" s="85"/>
-      <c r="AL69" s="121"/>
+      <c r="AL69" s="106"/>
       <c r="AM69" s="85"/>
       <c r="AN69" s="85"/>
       <c r="AO69" s="85"/>
@@ -7315,57 +7315,57 @@
       <c r="BB69" s="8"/>
       <c r="BC69" s="8"/>
       <c r="BD69" s="8"/>
-      <c r="BE69" s="119"/>
-    </row>
-    <row r="70" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BE69" s="104"/>
+    </row>
+    <row r="70" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="117"/>
-      <c r="C70" s="102"/>
-      <c r="D70" s="102"/>
-      <c r="E70" s="102"/>
-      <c r="F70" s="102"/>
-      <c r="G70" s="102"/>
-      <c r="H70" s="102"/>
-      <c r="I70" s="102"/>
-      <c r="J70" s="102"/>
-      <c r="K70" s="102"/>
-      <c r="L70" s="102"/>
-      <c r="M70" s="102"/>
-      <c r="N70" s="102"/>
-      <c r="O70" s="102"/>
-      <c r="P70" s="102"/>
-      <c r="Q70" s="102"/>
-      <c r="R70" s="102"/>
-      <c r="S70" s="102"/>
-      <c r="T70" s="102"/>
-      <c r="U70" s="102"/>
-      <c r="V70" s="102"/>
-      <c r="W70" s="102"/>
-      <c r="X70" s="102"/>
-      <c r="Y70" s="102"/>
-      <c r="Z70" s="102"/>
-      <c r="AA70" s="102"/>
-      <c r="AB70" s="102"/>
-      <c r="AC70" s="102"/>
-      <c r="AD70" s="102"/>
-      <c r="AE70" s="102"/>
-      <c r="AF70" s="102"/>
-      <c r="AG70" s="102"/>
-      <c r="AH70" s="102"/>
-      <c r="AI70" s="102"/>
-      <c r="AJ70" s="102"/>
-      <c r="AK70" s="102"/>
-      <c r="AL70" s="102"/>
-      <c r="AM70" s="102"/>
-      <c r="AN70" s="102"/>
-      <c r="AO70" s="102"/>
-      <c r="AP70" s="102"/>
-      <c r="AQ70" s="102"/>
-      <c r="AR70" s="102"/>
-      <c r="AS70" s="102"/>
-      <c r="AT70" s="102"/>
+      <c r="B70" s="102"/>
+      <c r="C70" s="122"/>
+      <c r="D70" s="122"/>
+      <c r="E70" s="122"/>
+      <c r="F70" s="122"/>
+      <c r="G70" s="122"/>
+      <c r="H70" s="122"/>
+      <c r="I70" s="122"/>
+      <c r="J70" s="122"/>
+      <c r="K70" s="122"/>
+      <c r="L70" s="122"/>
+      <c r="M70" s="122"/>
+      <c r="N70" s="122"/>
+      <c r="O70" s="122"/>
+      <c r="P70" s="122"/>
+      <c r="Q70" s="122"/>
+      <c r="R70" s="122"/>
+      <c r="S70" s="122"/>
+      <c r="T70" s="122"/>
+      <c r="U70" s="122"/>
+      <c r="V70" s="122"/>
+      <c r="W70" s="122"/>
+      <c r="X70" s="122"/>
+      <c r="Y70" s="122"/>
+      <c r="Z70" s="122"/>
+      <c r="AA70" s="122"/>
+      <c r="AB70" s="122"/>
+      <c r="AC70" s="122"/>
+      <c r="AD70" s="122"/>
+      <c r="AE70" s="122"/>
+      <c r="AF70" s="122"/>
+      <c r="AG70" s="122"/>
+      <c r="AH70" s="122"/>
+      <c r="AI70" s="122"/>
+      <c r="AJ70" s="122"/>
+      <c r="AK70" s="122"/>
+      <c r="AL70" s="122"/>
+      <c r="AM70" s="122"/>
+      <c r="AN70" s="122"/>
+      <c r="AO70" s="122"/>
+      <c r="AP70" s="122"/>
+      <c r="AQ70" s="122"/>
+      <c r="AR70" s="122"/>
+      <c r="AS70" s="122"/>
+      <c r="AT70" s="122"/>
       <c r="AU70" s="8"/>
       <c r="AV70" s="8"/>
       <c r="AW70" s="8"/>
@@ -7376,9 +7376,9 @@
       <c r="BB70" s="8"/>
       <c r="BC70" s="8"/>
       <c r="BD70" s="8"/>
-      <c r="BE70" s="119"/>
-    </row>
-    <row r="71" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="BE70" s="104"/>
+    </row>
+    <row r="71" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A71" s="4" t="s">
         <v>157</v>
       </c>
@@ -7391,7 +7391,7 @@
       <c r="AF71" s="94"/>
       <c r="BE71" s="95"/>
     </row>
-    <row r="72" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A72" s="4" t="s">
         <v>158</v>
       </c>
@@ -7404,7 +7404,7 @@
       <c r="AF72" s="94"/>
       <c r="BE72" s="95"/>
     </row>
-    <row r="73" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A73" s="4" t="s">
         <v>159</v>
       </c>
@@ -7417,7 +7417,7 @@
       <c r="AF73" s="94"/>
       <c r="BE73" s="95"/>
     </row>
-    <row r="74" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A74" s="4" t="s">
         <v>160</v>
       </c>
@@ -7430,7 +7430,7 @@
       <c r="AF74" s="94"/>
       <c r="BE74" s="95"/>
     </row>
-    <row r="75" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A75" s="4" t="s">
         <v>161</v>
       </c>
@@ -7443,7 +7443,7 @@
       <c r="AF75" s="94"/>
       <c r="BE75" s="95"/>
     </row>
-    <row r="76" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A76" s="4" t="s">
         <v>162</v>
       </c>
@@ -7456,7 +7456,7 @@
       <c r="AF76" s="94"/>
       <c r="BE76" s="95"/>
     </row>
-    <row r="77" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A77" s="4" t="s">
         <v>163</v>
       </c>
@@ -7469,7 +7469,7 @@
       <c r="AF77" s="94"/>
       <c r="BE77" s="95"/>
     </row>
-    <row r="78" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A78" s="4" t="s">
         <v>164</v>
       </c>
@@ -7482,7 +7482,7 @@
       <c r="AF78" s="94"/>
       <c r="BE78" s="95"/>
     </row>
-    <row r="79" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A79" s="4" t="s">
         <v>165</v>
       </c>
@@ -7495,7 +7495,7 @@
       <c r="AF79" s="94"/>
       <c r="BE79" s="95"/>
     </row>
-    <row r="80" spans="1:57" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:57" ht="24.9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A80" s="96" t="s">
         <v>166</v>
       </c>
@@ -7508,7 +7508,7 @@
       <c r="AF80" s="94"/>
       <c r="BE80" s="95"/>
     </row>
-    <row r="81" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A81" s="4"/>
       <c r="B81" s="90"/>
       <c r="F81" s="92"/>
@@ -7519,7 +7519,7 @@
       <c r="AF81" s="94"/>
       <c r="BE81" s="95"/>
     </row>
-    <row r="82" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A82" s="4"/>
       <c r="B82" s="90"/>
       <c r="F82" s="92"/>
@@ -7530,7 +7530,7 @@
       <c r="AF82" s="94"/>
       <c r="BE82" s="95"/>
     </row>
-    <row r="83" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A83" s="4"/>
       <c r="B83" s="90"/>
       <c r="F83" s="92"/>
@@ -7541,7 +7541,7 @@
       <c r="AF83" s="94"/>
       <c r="BE83" s="95"/>
     </row>
-    <row r="84" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A84" s="4"/>
       <c r="B84" s="90"/>
       <c r="F84" s="92"/>
@@ -7552,7 +7552,7 @@
       <c r="AF84" s="94"/>
       <c r="BE84" s="95"/>
     </row>
-    <row r="85" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A85" s="4"/>
       <c r="B85" s="90"/>
       <c r="F85" s="92"/>
@@ -7563,7 +7563,7 @@
       <c r="AF85" s="94"/>
       <c r="BE85" s="95"/>
     </row>
-    <row r="86" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A86" s="4"/>
       <c r="B86" s="90"/>
       <c r="F86" s="92"/>
@@ -7574,7 +7574,7 @@
       <c r="AF86" s="94"/>
       <c r="BE86" s="95"/>
     </row>
-    <row r="87" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A87" s="4"/>
       <c r="B87" s="90"/>
       <c r="F87" s="92"/>
@@ -7585,7 +7585,7 @@
       <c r="AF87" s="94"/>
       <c r="BE87" s="95"/>
     </row>
-    <row r="88" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A88" s="4"/>
       <c r="B88" s="90"/>
       <c r="F88" s="92"/>
@@ -7596,7 +7596,7 @@
       <c r="AF88" s="94"/>
       <c r="BE88" s="95"/>
     </row>
-    <row r="89" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A89" s="4"/>
       <c r="B89" s="90"/>
       <c r="F89" s="92"/>
@@ -7607,7 +7607,7 @@
       <c r="AF89" s="94"/>
       <c r="BE89" s="95"/>
     </row>
-    <row r="90" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A90" s="4"/>
       <c r="B90" s="90"/>
       <c r="F90" s="92"/>
@@ -7618,7 +7618,7 @@
       <c r="AF90" s="94"/>
       <c r="BE90" s="95"/>
     </row>
-    <row r="91" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A91" s="4"/>
       <c r="B91" s="90"/>
       <c r="F91" s="92"/>
@@ -7629,7 +7629,7 @@
       <c r="AF91" s="94"/>
       <c r="BE91" s="95"/>
     </row>
-    <row r="92" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A92" s="4"/>
       <c r="B92" s="90"/>
       <c r="F92" s="92"/>
@@ -7640,7 +7640,7 @@
       <c r="AF92" s="94"/>
       <c r="BE92" s="95"/>
     </row>
-    <row r="93" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A93" s="4"/>
       <c r="B93" s="90"/>
       <c r="F93" s="92"/>
@@ -7651,7 +7651,7 @@
       <c r="AF93" s="94"/>
       <c r="BE93" s="95"/>
     </row>
-    <row r="94" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A94" s="4"/>
       <c r="B94" s="90"/>
       <c r="F94" s="92"/>
@@ -7662,7 +7662,7 @@
       <c r="AF94" s="94"/>
       <c r="BE94" s="95"/>
     </row>
-    <row r="95" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A95" s="4"/>
       <c r="B95" s="90"/>
       <c r="F95" s="92"/>
@@ -7673,7 +7673,7 @@
       <c r="AF95" s="94"/>
       <c r="BE95" s="95"/>
     </row>
-    <row r="96" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A96" s="4"/>
       <c r="B96" s="90"/>
       <c r="F96" s="92"/>
@@ -7684,7 +7684,7 @@
       <c r="AF96" s="94"/>
       <c r="BE96" s="95"/>
     </row>
-    <row r="97" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A97" s="4"/>
       <c r="B97" s="90"/>
       <c r="F97" s="92"/>
@@ -7695,7 +7695,7 @@
       <c r="AF97" s="94"/>
       <c r="BE97" s="95"/>
     </row>
-    <row r="98" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A98" s="4"/>
       <c r="B98" s="90"/>
       <c r="F98" s="92"/>
@@ -7706,7 +7706,7 @@
       <c r="AF98" s="94"/>
       <c r="BE98" s="95"/>
     </row>
-    <row r="99" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A99" s="4"/>
       <c r="B99" s="90"/>
       <c r="F99" s="92"/>
@@ -7717,7 +7717,7 @@
       <c r="AF99" s="94"/>
       <c r="BE99" s="95"/>
     </row>
-    <row r="100" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A100" s="4"/>
       <c r="B100" s="90"/>
       <c r="F100" s="92"/>
@@ -7728,7 +7728,7 @@
       <c r="AF100" s="94"/>
       <c r="BE100" s="95"/>
     </row>
-    <row r="101" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A101" s="4"/>
       <c r="B101" s="90"/>
       <c r="F101" s="92"/>
@@ -7739,7 +7739,7 @@
       <c r="AF101" s="94"/>
       <c r="BE101" s="95"/>
     </row>
-    <row r="102" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A102" s="4"/>
       <c r="B102" s="90"/>
       <c r="F102" s="92"/>
@@ -7750,7 +7750,7 @@
       <c r="AF102" s="94"/>
       <c r="BE102" s="95"/>
     </row>
-    <row r="103" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A103" s="4"/>
       <c r="B103" s="90"/>
       <c r="F103" s="92"/>
@@ -7761,7 +7761,7 @@
       <c r="AF103" s="94"/>
       <c r="BE103" s="95"/>
     </row>
-    <row r="104" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A104" s="4"/>
       <c r="B104" s="90"/>
       <c r="F104" s="92"/>
@@ -7772,7 +7772,7 @@
       <c r="AF104" s="94"/>
       <c r="BE104" s="95"/>
     </row>
-    <row r="105" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A105" s="4"/>
       <c r="B105" s="90"/>
       <c r="F105" s="92"/>
@@ -7783,7 +7783,7 @@
       <c r="AF105" s="94"/>
       <c r="BE105" s="95"/>
     </row>
-    <row r="106" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A106" s="4"/>
       <c r="B106" s="90"/>
       <c r="F106" s="92"/>
@@ -7794,7 +7794,7 @@
       <c r="AF106" s="94"/>
       <c r="BE106" s="95"/>
     </row>
-    <row r="107" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A107" s="4"/>
       <c r="B107" s="90"/>
       <c r="F107" s="92"/>
@@ -7805,7 +7805,7 @@
       <c r="AF107" s="94"/>
       <c r="BE107" s="95"/>
     </row>
-    <row r="108" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A108" s="4"/>
       <c r="B108" s="90"/>
       <c r="F108" s="92"/>
@@ -7816,7 +7816,7 @@
       <c r="AF108" s="94"/>
       <c r="BE108" s="95"/>
     </row>
-    <row r="109" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A109" s="4"/>
       <c r="B109" s="90"/>
       <c r="F109" s="92"/>
@@ -7827,7 +7827,7 @@
       <c r="AF109" s="94"/>
       <c r="BE109" s="95"/>
     </row>
-    <row r="110" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A110" s="4"/>
       <c r="B110" s="90"/>
       <c r="F110" s="92"/>
@@ -7838,7 +7838,7 @@
       <c r="AF110" s="94"/>
       <c r="BE110" s="95"/>
     </row>
-    <row r="111" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A111" s="4"/>
       <c r="B111" s="90"/>
       <c r="F111" s="92"/>
@@ -7849,7 +7849,7 @@
       <c r="AF111" s="94"/>
       <c r="BE111" s="95"/>
     </row>
-    <row r="112" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A112" s="4"/>
       <c r="B112" s="90"/>
       <c r="F112" s="92"/>
@@ -7860,7 +7860,7 @@
       <c r="AF112" s="94"/>
       <c r="BE112" s="95"/>
     </row>
-    <row r="113" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A113" s="4"/>
       <c r="B113" s="90"/>
       <c r="F113" s="92"/>
@@ -7871,7 +7871,7 @@
       <c r="AF113" s="94"/>
       <c r="BE113" s="95"/>
     </row>
-    <row r="114" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A114" s="4"/>
       <c r="B114" s="90"/>
       <c r="F114" s="92"/>
@@ -7882,7 +7882,7 @@
       <c r="AF114" s="94"/>
       <c r="BE114" s="95"/>
     </row>
-    <row r="115" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A115" s="4"/>
       <c r="B115" s="90"/>
       <c r="F115" s="92"/>
@@ -7893,7 +7893,7 @@
       <c r="AF115" s="94"/>
       <c r="BE115" s="95"/>
     </row>
-    <row r="116" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A116" s="4"/>
       <c r="B116" s="90"/>
       <c r="F116" s="92"/>
@@ -7904,7 +7904,7 @@
       <c r="AF116" s="94"/>
       <c r="BE116" s="95"/>
     </row>
-    <row r="117" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A117" s="4"/>
       <c r="B117" s="90"/>
       <c r="F117" s="92"/>
@@ -7915,7 +7915,7 @@
       <c r="AF117" s="94"/>
       <c r="BE117" s="95"/>
     </row>
-    <row r="118" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A118" s="4"/>
       <c r="B118" s="90"/>
       <c r="F118" s="92"/>
@@ -7926,7 +7926,7 @@
       <c r="AF118" s="94"/>
       <c r="BE118" s="95"/>
     </row>
-    <row r="119" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A119" s="4"/>
       <c r="B119" s="90"/>
       <c r="F119" s="92"/>
@@ -7937,7 +7937,7 @@
       <c r="AF119" s="94"/>
       <c r="BE119" s="95"/>
     </row>
-    <row r="120" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A120" s="4"/>
       <c r="B120" s="90"/>
       <c r="F120" s="92"/>
@@ -7948,7 +7948,7 @@
       <c r="AF120" s="94"/>
       <c r="BE120" s="95"/>
     </row>
-    <row r="121" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A121" s="4"/>
       <c r="B121" s="90"/>
       <c r="F121" s="92"/>
@@ -7959,7 +7959,7 @@
       <c r="AF121" s="94"/>
       <c r="BE121" s="95"/>
     </row>
-    <row r="122" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A122" s="4"/>
       <c r="B122" s="90"/>
       <c r="F122" s="92"/>
@@ -7970,7 +7970,7 @@
       <c r="AF122" s="94"/>
       <c r="BE122" s="95"/>
     </row>
-    <row r="123" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A123" s="4"/>
       <c r="B123" s="90"/>
       <c r="F123" s="92"/>
@@ -7981,7 +7981,7 @@
       <c r="AF123" s="94"/>
       <c r="BE123" s="95"/>
     </row>
-    <row r="124" spans="1:57" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:57" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="90"/>
       <c r="AO124" s="94"/>
       <c r="AP124" s="94"/>
@@ -8001,7 +8001,7 @@
       <c r="BD124" s="94"/>
       <c r="BE124" s="95"/>
     </row>
-    <row r="125" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="97"/>
       <c r="C125" s="94"/>
       <c r="D125" s="94"/>
@@ -8059,7 +8059,7 @@
       <c r="BD125" s="94"/>
       <c r="BE125" s="95"/>
     </row>
-    <row r="126" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="97"/>
       <c r="C126" s="94"/>
       <c r="D126" s="94"/>
@@ -8117,7 +8117,7 @@
       <c r="BD126" s="94"/>
       <c r="BE126" s="95"/>
     </row>
-    <row r="127" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="97"/>
       <c r="C127" s="94"/>
       <c r="D127" s="94"/>
@@ -8175,7 +8175,7 @@
       <c r="BD127" s="94"/>
       <c r="BE127" s="95"/>
     </row>
-    <row r="128" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="97"/>
       <c r="C128" s="94"/>
       <c r="D128" s="94"/>
@@ -8233,7 +8233,7 @@
       <c r="BD128" s="94"/>
       <c r="BE128" s="95"/>
     </row>
-    <row r="129" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="97"/>
       <c r="C129" s="94"/>
       <c r="D129" s="94"/>
@@ -8291,7 +8291,7 @@
       <c r="BD129" s="94"/>
       <c r="BE129" s="95"/>
     </row>
-    <row r="130" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="97"/>
       <c r="C130" s="94"/>
       <c r="D130" s="94"/>
@@ -8349,7 +8349,7 @@
       <c r="BD130" s="94"/>
       <c r="BE130" s="95"/>
     </row>
-    <row r="131" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="97"/>
       <c r="C131" s="94"/>
       <c r="D131" s="94"/>
@@ -8407,7 +8407,7 @@
       <c r="BD131" s="94"/>
       <c r="BE131" s="95"/>
     </row>
-    <row r="132" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="97"/>
       <c r="C132" s="94"/>
       <c r="D132" s="94"/>
@@ -8465,7 +8465,7 @@
       <c r="BD132" s="94"/>
       <c r="BE132" s="95"/>
     </row>
-    <row r="133" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="97"/>
       <c r="C133" s="94"/>
       <c r="D133" s="94"/>
@@ -8523,7 +8523,7 @@
       <c r="BD133" s="94"/>
       <c r="BE133" s="95"/>
     </row>
-    <row r="134" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="97"/>
       <c r="C134" s="94"/>
       <c r="D134" s="94"/>
@@ -8581,7 +8581,7 @@
       <c r="BD134" s="94"/>
       <c r="BE134" s="95"/>
     </row>
-    <row r="135" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="97"/>
       <c r="C135" s="94"/>
       <c r="D135" s="94"/>
@@ -8639,7 +8639,7 @@
       <c r="BD135" s="94"/>
       <c r="BE135" s="95"/>
     </row>
-    <row r="136" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="97"/>
       <c r="C136" s="94"/>
       <c r="D136" s="94"/>
@@ -8697,7 +8697,7 @@
       <c r="BD136" s="94"/>
       <c r="BE136" s="95"/>
     </row>
-    <row r="137" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="97"/>
       <c r="C137" s="94"/>
       <c r="D137" s="94"/>
@@ -8755,7 +8755,7 @@
       <c r="BD137" s="94"/>
       <c r="BE137" s="95"/>
     </row>
-    <row r="138" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="97"/>
       <c r="C138" s="94"/>
       <c r="D138" s="94"/>
@@ -8813,7 +8813,7 @@
       <c r="BD138" s="94"/>
       <c r="BE138" s="95"/>
     </row>
-    <row r="139" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="97"/>
       <c r="C139" s="94"/>
       <c r="D139" s="94"/>
@@ -8871,7 +8871,7 @@
       <c r="BD139" s="94"/>
       <c r="BE139" s="95"/>
     </row>
-    <row r="140" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="97"/>
       <c r="C140" s="94"/>
       <c r="D140" s="94"/>
@@ -8929,7 +8929,7 @@
       <c r="BD140" s="94"/>
       <c r="BE140" s="95"/>
     </row>
-    <row r="141" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="97"/>
       <c r="C141" s="94"/>
       <c r="D141" s="94"/>
@@ -8987,7 +8987,7 @@
       <c r="BD141" s="94"/>
       <c r="BE141" s="95"/>
     </row>
-    <row r="142" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="97"/>
       <c r="C142" s="94"/>
       <c r="D142" s="94"/>
@@ -9045,7 +9045,7 @@
       <c r="BD142" s="94"/>
       <c r="BE142" s="95"/>
     </row>
-    <row r="143" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="97"/>
       <c r="C143" s="94"/>
       <c r="D143" s="94"/>
@@ -9103,7 +9103,7 @@
       <c r="BD143" s="94"/>
       <c r="BE143" s="95"/>
     </row>
-    <row r="144" spans="2:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="97"/>
       <c r="C144" s="94"/>
       <c r="D144" s="94"/>
@@ -9161,7 +9161,7 @@
       <c r="BD144" s="94"/>
       <c r="BE144" s="95"/>
     </row>
-    <row r="145" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="97"/>
       <c r="C145" s="94"/>
       <c r="D145" s="94"/>
@@ -9219,30 +9219,111 @@
       <c r="BD145" s="94"/>
       <c r="BE145" s="95"/>
     </row>
-    <row r="146" spans="1:57" s="98" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:57" s="98" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="99"/>
       <c r="BE146" s="100"/>
     </row>
-    <row r="147" spans="1:57" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:57" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="101" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.2"/>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.2"/>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.2"/>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.2"/>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.2"/>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.2"/>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.2"/>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.2"/>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.2"/>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.2"/>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="1:57" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="1:57" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="1:57" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:57" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:57" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:57" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:57" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:57" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:57" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:57" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:57" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:57" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:57" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="V55:V58"/>
+    <mergeCell ref="AB55:AB58"/>
+    <mergeCell ref="AH55:AH58"/>
+    <mergeCell ref="C70:AT70"/>
+    <mergeCell ref="P63:P66"/>
+    <mergeCell ref="V63:V66"/>
+    <mergeCell ref="AA63:AE63"/>
+    <mergeCell ref="M67:S67"/>
+    <mergeCell ref="U67:Y67"/>
+    <mergeCell ref="M69:S69"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="P59:P62"/>
+    <mergeCell ref="V59:V62"/>
+    <mergeCell ref="AB59:AB62"/>
+    <mergeCell ref="AG59:AK59"/>
+    <mergeCell ref="M52:S52"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="AA52:AE52"/>
+    <mergeCell ref="AG52:AK52"/>
+    <mergeCell ref="M53:M66"/>
+    <mergeCell ref="S53:S66"/>
+    <mergeCell ref="U53:U66"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="Y53:Y66"/>
+    <mergeCell ref="AC53:AD53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="P55:P58"/>
+    <mergeCell ref="M41:S41"/>
+    <mergeCell ref="M44:AK46"/>
+    <mergeCell ref="M49:S51"/>
+    <mergeCell ref="U49:Y51"/>
+    <mergeCell ref="AA49:AE51"/>
+    <mergeCell ref="AG49:AK51"/>
+    <mergeCell ref="AN29:AN34"/>
+    <mergeCell ref="AP29:AR29"/>
+    <mergeCell ref="AS29:AS34"/>
+    <mergeCell ref="AO31:AO34"/>
+    <mergeCell ref="P33:P36"/>
+    <mergeCell ref="AN35:AS35"/>
+    <mergeCell ref="AN21:AS21"/>
+    <mergeCell ref="AA23:AE23"/>
+    <mergeCell ref="P25:P28"/>
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="AN25:AS27"/>
+    <mergeCell ref="AN28:AS28"/>
+    <mergeCell ref="AG21:AK21"/>
+    <mergeCell ref="Y15:Y28"/>
+    <mergeCell ref="AN15:AN20"/>
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="AS15:AS20"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="V17:V20"/>
+    <mergeCell ref="AB17:AB19"/>
+    <mergeCell ref="AH17:AH20"/>
+    <mergeCell ref="AO17:AO20"/>
+    <mergeCell ref="AB20:AB22"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="AA15:AA22"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AE22"/>
+    <mergeCell ref="AG15:AG20"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AK20"/>
+    <mergeCell ref="M15:M40"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:S40"/>
+    <mergeCell ref="U15:U28"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="P29:P32"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="P37:P40"/>
+    <mergeCell ref="AN11:AS13"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="H13:J14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AN14:AS14"/>
+    <mergeCell ref="AA11:AE13"/>
     <mergeCell ref="B1:B70"/>
     <mergeCell ref="C1:AT1"/>
     <mergeCell ref="BE1:BE70"/>
@@ -9259,87 +9340,6 @@
     <mergeCell ref="M11:S13"/>
     <mergeCell ref="U11:Y13"/>
     <mergeCell ref="AG11:AK13"/>
-    <mergeCell ref="AN11:AS13"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="H13:J14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="AA14:AE14"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AN14:AS14"/>
-    <mergeCell ref="AA11:AE13"/>
-    <mergeCell ref="M15:M40"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:S40"/>
-    <mergeCell ref="U15:U28"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="P29:P32"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="P37:P40"/>
-    <mergeCell ref="AN15:AN20"/>
-    <mergeCell ref="AP15:AR15"/>
-    <mergeCell ref="AS15:AS20"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="V17:V20"/>
-    <mergeCell ref="AB17:AB19"/>
-    <mergeCell ref="AH17:AH20"/>
-    <mergeCell ref="AO17:AO20"/>
-    <mergeCell ref="AB20:AB22"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="AA15:AA22"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AE22"/>
-    <mergeCell ref="AG15:AG20"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AK20"/>
-    <mergeCell ref="AN21:AS21"/>
-    <mergeCell ref="AA23:AE23"/>
-    <mergeCell ref="P25:P28"/>
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="AN25:AS27"/>
-    <mergeCell ref="AN28:AS28"/>
-    <mergeCell ref="AG21:AK21"/>
-    <mergeCell ref="Y15:Y28"/>
-    <mergeCell ref="AN29:AN34"/>
-    <mergeCell ref="AP29:AR29"/>
-    <mergeCell ref="AS29:AS34"/>
-    <mergeCell ref="AO31:AO34"/>
-    <mergeCell ref="P33:P36"/>
-    <mergeCell ref="AN35:AS35"/>
-    <mergeCell ref="M41:S41"/>
-    <mergeCell ref="M44:AK46"/>
-    <mergeCell ref="M49:S51"/>
-    <mergeCell ref="U49:Y51"/>
-    <mergeCell ref="AA49:AE51"/>
-    <mergeCell ref="AG49:AK51"/>
-    <mergeCell ref="P59:P62"/>
-    <mergeCell ref="V59:V62"/>
-    <mergeCell ref="AB59:AB62"/>
-    <mergeCell ref="AG59:AK59"/>
-    <mergeCell ref="M52:S52"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="AA52:AE52"/>
-    <mergeCell ref="AG52:AK52"/>
-    <mergeCell ref="M53:M66"/>
-    <mergeCell ref="S53:S66"/>
-    <mergeCell ref="U53:U66"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="Y53:Y66"/>
-    <mergeCell ref="AC53:AD53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="P55:P58"/>
-    <mergeCell ref="V55:V58"/>
-    <mergeCell ref="AB55:AB58"/>
-    <mergeCell ref="AH55:AH58"/>
-    <mergeCell ref="C70:AT70"/>
-    <mergeCell ref="P63:P66"/>
-    <mergeCell ref="V63:V66"/>
-    <mergeCell ref="AA63:AE63"/>
-    <mergeCell ref="M67:S67"/>
-    <mergeCell ref="U67:Y67"/>
-    <mergeCell ref="M69:S69"/>
-    <mergeCell ref="U69:Y69"/>
   </mergeCells>
   <conditionalFormatting sqref="Q55">
     <cfRule type="expression" dxfId="65" priority="17" stopIfTrue="1">
